--- a/companies/sample_company/sample_data/northwind.xlsx
+++ b/companies/sample_company/sample_data/northwind.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="509">
   <si>
     <t>CategoryID</t>
   </si>
@@ -1226,126 +1226,6 @@
     <t>Naples</t>
   </si>
   <si>
-    <t>30471</t>
-  </si>
-  <si>
-    <t>63045</t>
-  </si>
-  <si>
-    <t>65155</t>
-  </si>
-  <si>
-    <t>42281</t>
-  </si>
-  <si>
-    <t>83750</t>
-  </si>
-  <si>
-    <t>65230</t>
-  </si>
-  <si>
-    <t>78902</t>
-  </si>
-  <si>
-    <t>73031</t>
-  </si>
-  <si>
-    <t>62351</t>
-  </si>
-  <si>
-    <t>76182</t>
-  </si>
-  <si>
-    <t>21567</t>
-  </si>
-  <si>
-    <t>54715</t>
-  </si>
-  <si>
-    <t>26388</t>
-  </si>
-  <si>
-    <t>77556</t>
-  </si>
-  <si>
-    <t>25330</t>
-  </si>
-  <si>
-    <t>20800</t>
-  </si>
-  <si>
-    <t>61456</t>
-  </si>
-  <si>
-    <t>75547</t>
-  </si>
-  <si>
-    <t>80043</t>
-  </si>
-  <si>
-    <t>35806</t>
-  </si>
-  <si>
-    <t>71077</t>
-  </si>
-  <si>
-    <t>45744</t>
-  </si>
-  <si>
-    <t>92925</t>
-  </si>
-  <si>
-    <t>48889</t>
-  </si>
-  <si>
-    <t>31138</t>
-  </si>
-  <si>
-    <t>78705</t>
-  </si>
-  <si>
-    <t>62404</t>
-  </si>
-  <si>
-    <t>98083</t>
-  </si>
-  <si>
-    <t>75384</t>
-  </si>
-  <si>
-    <t>42964</t>
-  </si>
-  <si>
-    <t>34315</t>
-  </si>
-  <si>
-    <t>26678</t>
-  </si>
-  <si>
-    <t>43357</t>
-  </si>
-  <si>
-    <t>33381</t>
-  </si>
-  <si>
-    <t>31100</t>
-  </si>
-  <si>
-    <t>88355</t>
-  </si>
-  <si>
-    <t>44015</t>
-  </si>
-  <si>
-    <t>46242</t>
-  </si>
-  <si>
-    <t>67430</t>
-  </si>
-  <si>
-    <t>29429</t>
-  </si>
-  <si>
     <t>Italy</t>
   </si>
   <si>
@@ -1655,48 +1535,31 @@
     <t>TerritoryDescription</t>
   </si>
   <si>
-    <t>Territory 1-1</t>
-  </si>
-  <si>
-    <t>Territory 1-2</t>
-  </si>
-  <si>
-    <t>Territory 1-3</t>
-  </si>
-  <si>
-    <t>Territory 2-1</t>
-  </si>
-  <si>
-    <t>Territory 2-2</t>
-  </si>
-  <si>
-    <t>Territory 2-3</t>
-  </si>
-  <si>
-    <t>Territory 3-1</t>
-  </si>
-  <si>
-    <t>Territory 3-2</t>
-  </si>
-  <si>
-    <t>Territory 3-3</t>
-  </si>
-  <si>
-    <t>Territory 4-1</t>
-  </si>
-  <si>
-    <t>Territory 4-2</t>
-  </si>
-  <si>
-    <t>Territory 4-3</t>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Latvia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -1750,12 +1613,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2170,13 +2034,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2184,7 +2048,7 @@
         <v>10000</v>
       </c>
       <c r="B2" t="s">
-        <v>543</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2195,7 +2059,7 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2206,7 +2070,7 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>545</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2217,7 +2081,7 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>546</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -2228,7 +2092,7 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>547</v>
+        <v>503</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2239,7 +2103,7 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>548</v>
+        <v>402</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -2250,7 +2114,7 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>549</v>
+        <v>403</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -2261,7 +2125,7 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>550</v>
+        <v>504</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2272,7 +2136,7 @@
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>551</v>
+        <v>505</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -2283,7 +2147,7 @@
         <v>10009</v>
       </c>
       <c r="B11" t="s">
-        <v>552</v>
+        <v>506</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -2294,7 +2158,7 @@
         <v>10010</v>
       </c>
       <c r="B12" t="s">
-        <v>553</v>
+        <v>507</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2305,7 +2169,7 @@
         <v>10011</v>
       </c>
       <c r="B13" t="s">
-        <v>554</v>
+        <v>508</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2326,10 +2190,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -5121,14 +4985,14 @@
       <c r="F2" t="s">
         <v>378</v>
       </c>
-      <c r="H2" t="s">
-        <v>400</v>
+      <c r="H2">
+        <v>30471</v>
       </c>
       <c r="I2" t="s">
         <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5150,14 +5014,14 @@
       <c r="F3" t="s">
         <v>379</v>
       </c>
-      <c r="H3" t="s">
-        <v>401</v>
+      <c r="H3">
+        <v>63045</v>
       </c>
       <c r="I3" t="s">
         <v>67</v>
       </c>
       <c r="J3" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5179,14 +5043,14 @@
       <c r="F4" t="s">
         <v>380</v>
       </c>
-      <c r="H4" t="s">
-        <v>402</v>
+      <c r="H4">
+        <v>65155</v>
       </c>
       <c r="I4" t="s">
         <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5208,14 +5072,14 @@
       <c r="F5" t="s">
         <v>381</v>
       </c>
-      <c r="H5" t="s">
-        <v>403</v>
+      <c r="H5">
+        <v>42281</v>
       </c>
       <c r="I5" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="J5" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5237,14 +5101,14 @@
       <c r="F6" t="s">
         <v>382</v>
       </c>
-      <c r="H6" t="s">
-        <v>404</v>
+      <c r="H6">
+        <v>83750</v>
       </c>
       <c r="I6" t="s">
         <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5266,14 +5130,14 @@
       <c r="F7" t="s">
         <v>383</v>
       </c>
-      <c r="H7" t="s">
-        <v>405</v>
+      <c r="H7">
+        <v>65230</v>
       </c>
       <c r="I7" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="J7" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5295,14 +5159,14 @@
       <c r="F8" t="s">
         <v>384</v>
       </c>
-      <c r="H8" t="s">
-        <v>406</v>
+      <c r="H8">
+        <v>78902</v>
       </c>
       <c r="I8" t="s">
         <v>73</v>
       </c>
       <c r="J8" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5324,14 +5188,14 @@
       <c r="F9" t="s">
         <v>85</v>
       </c>
-      <c r="H9" t="s">
-        <v>407</v>
+      <c r="H9">
+        <v>73031</v>
       </c>
       <c r="I9" t="s">
         <v>71</v>
       </c>
       <c r="J9" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5353,14 +5217,14 @@
       <c r="F10" t="s">
         <v>385</v>
       </c>
-      <c r="H10" t="s">
-        <v>408</v>
+      <c r="H10">
+        <v>62351</v>
       </c>
       <c r="I10" t="s">
         <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5382,14 +5246,14 @@
       <c r="F11" t="s">
         <v>385</v>
       </c>
-      <c r="H11" t="s">
-        <v>409</v>
+      <c r="H11">
+        <v>76182</v>
       </c>
       <c r="I11" t="s">
         <v>70</v>
       </c>
       <c r="J11" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -5411,14 +5275,14 @@
       <c r="F12" t="s">
         <v>379</v>
       </c>
-      <c r="H12" t="s">
-        <v>410</v>
+      <c r="H12">
+        <v>21567</v>
       </c>
       <c r="I12" t="s">
         <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5440,14 +5304,14 @@
       <c r="F13" t="s">
         <v>386</v>
       </c>
-      <c r="H13" t="s">
-        <v>411</v>
+      <c r="H13">
+        <v>54715</v>
       </c>
       <c r="I13" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="J13" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5469,14 +5333,14 @@
       <c r="F14" t="s">
         <v>89</v>
       </c>
-      <c r="H14" t="s">
-        <v>412</v>
+      <c r="H14">
+        <v>26388</v>
       </c>
       <c r="I14" t="s">
         <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5498,14 +5362,14 @@
       <c r="F15" t="s">
         <v>387</v>
       </c>
-      <c r="H15" t="s">
-        <v>413</v>
+      <c r="H15">
+        <v>77556</v>
       </c>
       <c r="I15" t="s">
         <v>68</v>
       </c>
       <c r="J15" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5527,14 +5391,14 @@
       <c r="F16" t="s">
         <v>82</v>
       </c>
-      <c r="H16" t="s">
-        <v>414</v>
+      <c r="H16">
+        <v>25330</v>
       </c>
       <c r="I16" t="s">
         <v>68</v>
       </c>
       <c r="J16" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5556,14 +5420,14 @@
       <c r="F17" t="s">
         <v>388</v>
       </c>
-      <c r="H17" t="s">
-        <v>415</v>
+      <c r="H17">
+        <v>20800</v>
       </c>
       <c r="I17" t="s">
         <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5585,14 +5449,14 @@
       <c r="F18" t="s">
         <v>389</v>
       </c>
-      <c r="H18" t="s">
-        <v>416</v>
+      <c r="H18">
+        <v>61456</v>
       </c>
       <c r="I18" t="s">
         <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5614,14 +5478,14 @@
       <c r="F19" t="s">
         <v>390</v>
       </c>
-      <c r="H19" t="s">
-        <v>417</v>
+      <c r="H19">
+        <v>75547</v>
       </c>
       <c r="I19" t="s">
         <v>77</v>
       </c>
       <c r="J19" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -5643,14 +5507,14 @@
       <c r="F20" t="s">
         <v>94</v>
       </c>
-      <c r="H20" t="s">
-        <v>418</v>
+      <c r="H20">
+        <v>80043</v>
       </c>
       <c r="I20" t="s">
         <v>78</v>
       </c>
       <c r="J20" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -5672,14 +5536,14 @@
       <c r="F21" t="s">
         <v>391</v>
       </c>
-      <c r="H21" t="s">
-        <v>419</v>
+      <c r="H21">
+        <v>35806</v>
       </c>
       <c r="I21" t="s">
         <v>75</v>
       </c>
       <c r="J21" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -5701,14 +5565,14 @@
       <c r="F22" t="s">
         <v>85</v>
       </c>
-      <c r="H22" t="s">
-        <v>420</v>
+      <c r="H22">
+        <v>71077</v>
       </c>
       <c r="I22" t="s">
         <v>71</v>
       </c>
       <c r="J22" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5730,14 +5594,14 @@
       <c r="F23" t="s">
         <v>388</v>
       </c>
-      <c r="H23" t="s">
-        <v>421</v>
+      <c r="H23">
+        <v>45744</v>
       </c>
       <c r="I23" t="s">
         <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5759,14 +5623,14 @@
       <c r="F24" t="s">
         <v>392</v>
       </c>
-      <c r="H24" t="s">
-        <v>422</v>
+      <c r="H24">
+        <v>92925</v>
       </c>
       <c r="I24" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="J24" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -5788,14 +5652,14 @@
       <c r="F25" t="s">
         <v>393</v>
       </c>
-      <c r="H25" t="s">
-        <v>423</v>
+      <c r="H25">
+        <v>48889</v>
       </c>
       <c r="I25" t="s">
         <v>75</v>
       </c>
       <c r="J25" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -5817,14 +5681,14 @@
       <c r="F26" t="s">
         <v>394</v>
       </c>
-      <c r="H26" t="s">
-        <v>424</v>
+      <c r="H26">
+        <v>31138</v>
       </c>
       <c r="I26" t="s">
         <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -5846,14 +5710,14 @@
       <c r="F27" t="s">
         <v>79</v>
       </c>
-      <c r="H27" t="s">
-        <v>425</v>
+      <c r="H27">
+        <v>78705</v>
       </c>
       <c r="I27" t="s">
         <v>65</v>
       </c>
       <c r="J27" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -5875,14 +5739,14 @@
       <c r="F28" t="s">
         <v>395</v>
       </c>
-      <c r="H28" t="s">
-        <v>426</v>
+      <c r="H28">
+        <v>62404</v>
       </c>
       <c r="I28" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="J28" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -5904,14 +5768,14 @@
       <c r="F29" t="s">
         <v>389</v>
       </c>
-      <c r="H29" t="s">
-        <v>427</v>
+      <c r="H29">
+        <v>98083</v>
       </c>
       <c r="I29" t="s">
         <v>67</v>
       </c>
       <c r="J29" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -5933,14 +5797,14 @@
       <c r="F30" t="s">
         <v>392</v>
       </c>
-      <c r="H30" t="s">
-        <v>428</v>
+      <c r="H30">
+        <v>75384</v>
       </c>
       <c r="I30" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="J30" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -5962,14 +5826,14 @@
       <c r="F31" t="s">
         <v>384</v>
       </c>
-      <c r="H31" t="s">
-        <v>429</v>
+      <c r="H31">
+        <v>42964</v>
       </c>
       <c r="I31" t="s">
         <v>73</v>
       </c>
       <c r="J31" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -5991,14 +5855,14 @@
       <c r="F32" t="s">
         <v>391</v>
       </c>
-      <c r="H32" t="s">
-        <v>430</v>
+      <c r="H32">
+        <v>34315</v>
       </c>
       <c r="I32" t="s">
         <v>75</v>
       </c>
       <c r="J32" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -6020,14 +5884,14 @@
       <c r="F33" t="s">
         <v>379</v>
       </c>
-      <c r="H33" t="s">
-        <v>431</v>
+      <c r="H33">
+        <v>26678</v>
       </c>
       <c r="I33" t="s">
         <v>67</v>
       </c>
       <c r="J33" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -6049,14 +5913,14 @@
       <c r="F34" t="s">
         <v>394</v>
       </c>
-      <c r="H34" t="s">
-        <v>432</v>
+      <c r="H34">
+        <v>43357</v>
       </c>
       <c r="I34" t="s">
         <v>78</v>
       </c>
       <c r="J34" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -6078,14 +5942,14 @@
       <c r="F35" t="s">
         <v>386</v>
       </c>
-      <c r="H35" t="s">
-        <v>433</v>
+      <c r="H35">
+        <v>33381</v>
       </c>
       <c r="I35" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
       <c r="J35" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -6107,14 +5971,14 @@
       <c r="F36" t="s">
         <v>396</v>
       </c>
-      <c r="H36" t="s">
-        <v>434</v>
+      <c r="H36">
+        <v>31100</v>
       </c>
       <c r="I36" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="J36" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -6136,14 +6000,14 @@
       <c r="F37" t="s">
         <v>88</v>
       </c>
-      <c r="H37" t="s">
-        <v>435</v>
+      <c r="H37">
+        <v>88355</v>
       </c>
       <c r="I37" t="s">
         <v>74</v>
       </c>
       <c r="J37" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -6165,14 +6029,14 @@
       <c r="F38" t="s">
         <v>397</v>
       </c>
-      <c r="H38" t="s">
-        <v>436</v>
+      <c r="H38">
+        <v>44015</v>
       </c>
       <c r="I38" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="J38" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -6194,14 +6058,14 @@
       <c r="F39" t="s">
         <v>398</v>
       </c>
-      <c r="H39" t="s">
-        <v>437</v>
+      <c r="H39">
+        <v>46242</v>
       </c>
       <c r="I39" t="s">
         <v>71</v>
       </c>
       <c r="J39" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -6223,14 +6087,14 @@
       <c r="F40" t="s">
         <v>86</v>
       </c>
-      <c r="H40" t="s">
-        <v>438</v>
+      <c r="H40">
+        <v>67430</v>
       </c>
       <c r="I40" t="s">
         <v>72</v>
       </c>
       <c r="J40" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -6252,14 +6116,14 @@
       <c r="F41" t="s">
         <v>399</v>
       </c>
-      <c r="H41" t="s">
-        <v>439</v>
+      <c r="H41">
+        <v>29429</v>
       </c>
       <c r="I41" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="J41" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -6277,22 +6141,22 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>23</v>
@@ -6301,7 +6165,7 @@
         <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6309,13 +6173,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="C2" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="D2" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="E2" s="2">
         <v>22583</v>
@@ -6324,7 +6188,7 @@
         <v>35607</v>
       </c>
       <c r="G2" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="H2" t="s">
         <v>75</v>
@@ -6335,10 +6199,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="C3" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="D3" t="s">
         <v>335</v>
@@ -6350,10 +6214,10 @@
         <v>34789</v>
       </c>
       <c r="G3" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="H3" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6361,13 +6225,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="C4" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="D4" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="E4" s="2">
         <v>30175</v>
@@ -6376,10 +6240,10 @@
         <v>35318</v>
       </c>
       <c r="G4" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="H4" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -6390,10 +6254,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="C5" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
       <c r="D5" t="s">
         <v>335</v>
@@ -6405,7 +6269,7 @@
         <v>35609</v>
       </c>
       <c r="G5" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="H5" t="s">
         <v>76</v>
@@ -6419,10 +6283,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="D6" t="s">
         <v>335</v>
@@ -6448,13 +6312,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="C7" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="D7" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="E7" s="2">
         <v>23986</v>
@@ -6463,7 +6327,7 @@
         <v>34841</v>
       </c>
       <c r="G7" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="H7" t="s">
         <v>69</v>
@@ -6474,13 +6338,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="D8" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="E8" s="2">
         <v>23658</v>
@@ -6503,13 +6367,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="C9" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
       <c r="D9" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="E9" s="2">
         <v>22602</v>
@@ -6518,10 +6382,10 @@
         <v>35662</v>
       </c>
       <c r="G9" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="H9" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6529,13 +6393,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
       <c r="C10" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="D10" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="E10" s="2">
         <v>32659</v>
@@ -6544,10 +6408,10 @@
         <v>34552</v>
       </c>
       <c r="G10" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
       <c r="H10" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="I10">
         <v>5</v>
@@ -6558,10 +6422,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="C11" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
       <c r="D11" t="s">
         <v>335</v>
@@ -6597,7 +6461,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>20</v>
@@ -6611,10 +6475,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="C2" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6622,10 +6486,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="C3" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6633,10 +6497,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="C4" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -6654,46 +6518,46 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>524</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6706,14 +6570,14 @@
       <c r="C2">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
-        <v>35586</v>
-      </c>
-      <c r="E2" s="2">
-        <v>35604</v>
-      </c>
-      <c r="F2" s="2">
-        <v>35592</v>
+      <c r="D2" s="3">
+        <v>45082</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45100</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45088</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -6730,8 +6594,8 @@
       <c r="K2" t="s">
         <v>94</v>
       </c>
-      <c r="M2" t="s">
-        <v>418</v>
+      <c r="M2">
+        <v>80043</v>
       </c>
       <c r="N2" t="s">
         <v>78</v>
@@ -6747,14 +6611,14 @@
       <c r="C3">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
-        <v>36082</v>
-      </c>
-      <c r="E3" s="2">
-        <v>36101</v>
-      </c>
-      <c r="F3" s="2">
-        <v>36084</v>
+      <c r="D3" s="3">
+        <v>45579</v>
+      </c>
+      <c r="E3" s="3">
+        <v>45598</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45581</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -6771,8 +6635,8 @@
       <c r="K3" t="s">
         <v>379</v>
       </c>
-      <c r="M3" t="s">
-        <v>410</v>
+      <c r="M3">
+        <v>21567</v>
       </c>
       <c r="N3" t="s">
         <v>67</v>
@@ -6788,14 +6652,14 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>35803</v>
-      </c>
-      <c r="E4" s="2">
-        <v>35818</v>
-      </c>
-      <c r="F4" s="2">
-        <v>35814</v>
+      <c r="D4" s="3">
+        <v>45299</v>
+      </c>
+      <c r="E4" s="3">
+        <v>45314</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45310</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -6812,8 +6676,8 @@
       <c r="K4" t="s">
         <v>389</v>
       </c>
-      <c r="M4" t="s">
-        <v>427</v>
+      <c r="M4">
+        <v>98083</v>
       </c>
       <c r="N4" t="s">
         <v>67</v>
@@ -6829,14 +6693,14 @@
       <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" s="2">
-        <v>35116</v>
-      </c>
-      <c r="E5" s="2">
-        <v>35125</v>
-      </c>
-      <c r="F5" s="2">
-        <v>35127</v>
+      <c r="D5" s="3">
+        <v>44613</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44621</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44623</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -6853,8 +6717,8 @@
       <c r="K5" t="s">
         <v>387</v>
       </c>
-      <c r="M5" t="s">
-        <v>413</v>
+      <c r="M5">
+        <v>77556</v>
       </c>
       <c r="N5" t="s">
         <v>68</v>
@@ -6870,14 +6734,14 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="2">
-        <v>35601</v>
-      </c>
-      <c r="E6" s="2">
-        <v>35611</v>
-      </c>
-      <c r="F6" s="2">
-        <v>35608</v>
+      <c r="D6" s="3">
+        <v>45097</v>
+      </c>
+      <c r="E6" s="3">
+        <v>45107</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45104</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -6894,11 +6758,11 @@
       <c r="K6" t="s">
         <v>399</v>
       </c>
-      <c r="M6" t="s">
-        <v>439</v>
+      <c r="M6">
+        <v>29429</v>
       </c>
       <c r="N6" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -6911,14 +6775,14 @@
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
-        <v>35840</v>
-      </c>
-      <c r="E7" s="2">
-        <v>35849</v>
-      </c>
-      <c r="F7" s="2">
-        <v>35841</v>
+      <c r="D7" s="3">
+        <v>45336</v>
+      </c>
+      <c r="E7" s="3">
+        <v>45345</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45337</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -6935,8 +6799,8 @@
       <c r="K7" t="s">
         <v>394</v>
       </c>
-      <c r="M7" t="s">
-        <v>432</v>
+      <c r="M7">
+        <v>43357</v>
       </c>
       <c r="N7" t="s">
         <v>78</v>
@@ -6952,14 +6816,14 @@
       <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8" s="2">
-        <v>35529</v>
-      </c>
-      <c r="E8" s="2">
-        <v>35537</v>
-      </c>
-      <c r="F8" s="2">
-        <v>35533</v>
+      <c r="D8" s="3">
+        <v>45025</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45033</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45029</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -6976,8 +6840,8 @@
       <c r="K8" t="s">
         <v>398</v>
       </c>
-      <c r="M8" t="s">
-        <v>437</v>
+      <c r="M8">
+        <v>46242</v>
       </c>
       <c r="N8" t="s">
         <v>71</v>
@@ -6993,14 +6857,14 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9" s="2">
-        <v>35482</v>
-      </c>
-      <c r="E9" s="2">
-        <v>35497</v>
-      </c>
-      <c r="F9" s="2">
-        <v>35489</v>
+      <c r="D9" s="3">
+        <v>44978</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44993</v>
+      </c>
+      <c r="F9" s="3">
+        <v>44985</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -7017,8 +6881,8 @@
       <c r="K9" t="s">
         <v>388</v>
       </c>
-      <c r="M9" t="s">
-        <v>421</v>
+      <c r="M9">
+        <v>45744</v>
       </c>
       <c r="N9" t="s">
         <v>72</v>
@@ -7034,14 +6898,14 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
-        <v>35701</v>
-      </c>
-      <c r="E10" s="2">
-        <v>35716</v>
-      </c>
-      <c r="F10" s="2">
-        <v>35713</v>
+      <c r="D10" s="3">
+        <v>45197</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45212</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45209</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -7058,8 +6922,8 @@
       <c r="K10" t="s">
         <v>382</v>
       </c>
-      <c r="M10" t="s">
-        <v>404</v>
+      <c r="M10">
+        <v>83750</v>
       </c>
       <c r="N10" t="s">
         <v>69</v>
@@ -7075,14 +6939,14 @@
       <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" s="2">
-        <v>35735</v>
-      </c>
-      <c r="E11" s="2">
-        <v>35745</v>
-      </c>
-      <c r="F11" s="2">
-        <v>35741</v>
+      <c r="D11" s="3">
+        <v>45231</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45241</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45237</v>
       </c>
       <c r="G11">
         <v>3</v>
@@ -7099,8 +6963,8 @@
       <c r="K11" t="s">
         <v>389</v>
       </c>
-      <c r="M11" t="s">
-        <v>427</v>
+      <c r="M11">
+        <v>98083</v>
       </c>
       <c r="N11" t="s">
         <v>67</v>
@@ -7116,14 +6980,14 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="2">
-        <v>35444</v>
-      </c>
-      <c r="E12" s="2">
-        <v>35460</v>
-      </c>
-      <c r="F12" s="2">
-        <v>35455</v>
+      <c r="D12" s="3">
+        <v>44940</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44956</v>
+      </c>
+      <c r="F12" s="3">
+        <v>44951</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7140,8 +7004,8 @@
       <c r="K12" t="s">
         <v>398</v>
       </c>
-      <c r="M12" t="s">
-        <v>437</v>
+      <c r="M12">
+        <v>46242</v>
       </c>
       <c r="N12" t="s">
         <v>71</v>
@@ -7157,14 +7021,14 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="2">
-        <v>36084</v>
-      </c>
-      <c r="E13" s="2">
-        <v>36087</v>
-      </c>
-      <c r="F13" s="2">
-        <v>36094</v>
+      <c r="D13" s="3">
+        <v>45581</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45584</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45591</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -7181,8 +7045,8 @@
       <c r="K13" t="s">
         <v>85</v>
       </c>
-      <c r="M13" t="s">
-        <v>407</v>
+      <c r="M13">
+        <v>73031</v>
       </c>
       <c r="N13" t="s">
         <v>71</v>
@@ -7198,14 +7062,14 @@
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" s="2">
-        <v>35260</v>
-      </c>
-      <c r="E14" s="2">
-        <v>35267</v>
-      </c>
-      <c r="F14" s="2">
-        <v>35266</v>
+      <c r="D14" s="3">
+        <v>44756</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44763</v>
+      </c>
+      <c r="F14" s="3">
+        <v>44762</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -7222,8 +7086,8 @@
       <c r="K14" t="s">
         <v>382</v>
       </c>
-      <c r="M14" t="s">
-        <v>404</v>
+      <c r="M14">
+        <v>83750</v>
       </c>
       <c r="N14" t="s">
         <v>69</v>
@@ -7239,14 +7103,14 @@
       <c r="C15">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
-        <v>35453</v>
-      </c>
-      <c r="E15" s="2">
-        <v>35463</v>
-      </c>
-      <c r="F15" s="2">
-        <v>35461</v>
+      <c r="D15" s="3">
+        <v>44949</v>
+      </c>
+      <c r="E15" s="3">
+        <v>44959</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44957</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -7263,8 +7127,8 @@
       <c r="K15" t="s">
         <v>389</v>
       </c>
-      <c r="M15" t="s">
-        <v>416</v>
+      <c r="M15">
+        <v>61456</v>
       </c>
       <c r="N15" t="s">
         <v>67</v>
@@ -7280,14 +7144,14 @@
       <c r="C16">
         <v>4</v>
       </c>
-      <c r="D16" s="2">
-        <v>36041</v>
-      </c>
-      <c r="E16" s="2">
-        <v>36054</v>
-      </c>
-      <c r="F16" s="2">
-        <v>36050</v>
+      <c r="D16" s="3">
+        <v>45538</v>
+      </c>
+      <c r="E16" s="3">
+        <v>45551</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45547</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -7304,8 +7168,8 @@
       <c r="K16" t="s">
         <v>394</v>
       </c>
-      <c r="M16" t="s">
-        <v>432</v>
+      <c r="M16">
+        <v>43357</v>
       </c>
       <c r="N16" t="s">
         <v>78</v>
@@ -7321,14 +7185,14 @@
       <c r="C17">
         <v>8</v>
       </c>
-      <c r="D17" s="2">
-        <v>35552</v>
-      </c>
-      <c r="E17" s="2">
-        <v>35558</v>
-      </c>
-      <c r="F17" s="2">
-        <v>35559</v>
+      <c r="D17" s="3">
+        <v>45048</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45054</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45055</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -7345,8 +7209,8 @@
       <c r="K17" t="s">
         <v>379</v>
       </c>
-      <c r="M17" t="s">
-        <v>431</v>
+      <c r="M17">
+        <v>26678</v>
       </c>
       <c r="N17" t="s">
         <v>67</v>
@@ -7362,14 +7226,14 @@
       <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="2">
-        <v>35357</v>
-      </c>
-      <c r="E18" s="2">
-        <v>35374</v>
-      </c>
-      <c r="F18" s="2">
-        <v>35367</v>
+      <c r="D18" s="3">
+        <v>44853</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44870</v>
+      </c>
+      <c r="F18" s="3">
+        <v>44863</v>
       </c>
       <c r="G18">
         <v>3</v>
@@ -7386,11 +7250,11 @@
       <c r="K18" t="s">
         <v>392</v>
       </c>
-      <c r="M18" t="s">
-        <v>422</v>
+      <c r="M18">
+        <v>92925</v>
       </c>
       <c r="N18" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -7403,14 +7267,14 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19" s="2">
-        <v>35575</v>
-      </c>
-      <c r="E19" s="2">
-        <v>35585</v>
-      </c>
-      <c r="F19" s="2">
-        <v>35579</v>
+      <c r="D19" s="3">
+        <v>45071</v>
+      </c>
+      <c r="E19" s="3">
+        <v>45081</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45075</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -7427,8 +7291,8 @@
       <c r="K19" t="s">
         <v>88</v>
       </c>
-      <c r="M19" t="s">
-        <v>435</v>
+      <c r="M19">
+        <v>88355</v>
       </c>
       <c r="N19" t="s">
         <v>74</v>
@@ -7444,14 +7308,14 @@
       <c r="C20">
         <v>10</v>
       </c>
-      <c r="D20" s="2">
-        <v>35692</v>
-      </c>
-      <c r="E20" s="2">
-        <v>35698</v>
-      </c>
-      <c r="F20" s="2">
-        <v>35696</v>
+      <c r="D20" s="3">
+        <v>45188</v>
+      </c>
+      <c r="E20" s="3">
+        <v>45194</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45192</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -7468,8 +7332,8 @@
       <c r="K20" t="s">
         <v>390</v>
       </c>
-      <c r="M20" t="s">
-        <v>417</v>
+      <c r="M20">
+        <v>75547</v>
       </c>
       <c r="N20" t="s">
         <v>77</v>
@@ -7485,14 +7349,14 @@
       <c r="C21">
         <v>6</v>
       </c>
-      <c r="D21" s="2">
-        <v>35808</v>
-      </c>
-      <c r="E21" s="2">
-        <v>35814</v>
-      </c>
-      <c r="F21" s="2">
-        <v>35812</v>
+      <c r="D21" s="3">
+        <v>45304</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45310</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45308</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -7509,8 +7373,8 @@
       <c r="K21" t="s">
         <v>389</v>
       </c>
-      <c r="M21" t="s">
-        <v>416</v>
+      <c r="M21">
+        <v>61456</v>
       </c>
       <c r="N21" t="s">
         <v>67</v>
@@ -7526,14 +7390,14 @@
       <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="2">
-        <v>35637</v>
-      </c>
-      <c r="E22" s="2">
-        <v>35642</v>
-      </c>
-      <c r="F22" s="2">
-        <v>35650</v>
+      <c r="D22" s="3">
+        <v>45133</v>
+      </c>
+      <c r="E22" s="3">
+        <v>45138</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45146</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -7550,8 +7414,8 @@
       <c r="K22" t="s">
         <v>378</v>
       </c>
-      <c r="M22" t="s">
-        <v>400</v>
+      <c r="M22">
+        <v>30471</v>
       </c>
       <c r="N22" t="s">
         <v>68</v>
@@ -7567,14 +7431,14 @@
       <c r="C23">
         <v>7</v>
       </c>
-      <c r="D23" s="2">
-        <v>35567</v>
-      </c>
-      <c r="E23" s="2">
-        <v>35581</v>
-      </c>
-      <c r="F23" s="2">
-        <v>35581</v>
+      <c r="D23" s="3">
+        <v>45063</v>
+      </c>
+      <c r="E23" s="3">
+        <v>45077</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45077</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -7591,11 +7455,11 @@
       <c r="K23" t="s">
         <v>386</v>
       </c>
-      <c r="M23" t="s">
-        <v>433</v>
+      <c r="M23">
+        <v>33381</v>
       </c>
       <c r="N23" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -7608,14 +7472,14 @@
       <c r="C24">
         <v>4</v>
       </c>
-      <c r="D24" s="2">
-        <v>35959</v>
-      </c>
-      <c r="E24" s="2">
-        <v>35977</v>
-      </c>
-      <c r="F24" s="2">
-        <v>35960</v>
+      <c r="D24" s="3">
+        <v>45456</v>
+      </c>
+      <c r="E24" s="3">
+        <v>45474</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45457</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -7632,11 +7496,11 @@
       <c r="K24" t="s">
         <v>399</v>
       </c>
-      <c r="M24" t="s">
-        <v>439</v>
+      <c r="M24">
+        <v>29429</v>
       </c>
       <c r="N24" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -7649,14 +7513,14 @@
       <c r="C25">
         <v>2</v>
       </c>
-      <c r="D25" s="2">
-        <v>35271</v>
-      </c>
-      <c r="E25" s="2">
-        <v>35289</v>
-      </c>
-      <c r="F25" s="2">
-        <v>35278</v>
+      <c r="D25" s="3">
+        <v>44767</v>
+      </c>
+      <c r="E25" s="3">
+        <v>44785</v>
+      </c>
+      <c r="F25" s="3">
+        <v>44774</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -7673,11 +7537,11 @@
       <c r="K25" t="s">
         <v>381</v>
       </c>
-      <c r="M25" t="s">
-        <v>403</v>
+      <c r="M25">
+        <v>42281</v>
       </c>
       <c r="N25" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -7690,14 +7554,14 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="2">
-        <v>35482</v>
-      </c>
-      <c r="E26" s="2">
-        <v>35496</v>
-      </c>
-      <c r="F26" s="2">
-        <v>35494</v>
+      <c r="D26" s="3">
+        <v>44978</v>
+      </c>
+      <c r="E26" s="3">
+        <v>44992</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44990</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -7714,11 +7578,11 @@
       <c r="K26" t="s">
         <v>386</v>
       </c>
-      <c r="M26" t="s">
-        <v>433</v>
+      <c r="M26">
+        <v>33381</v>
       </c>
       <c r="N26" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -7731,14 +7595,14 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" s="2">
-        <v>35684</v>
-      </c>
-      <c r="E27" s="2">
-        <v>35695</v>
-      </c>
-      <c r="F27" s="2">
-        <v>35686</v>
+      <c r="D27" s="3">
+        <v>45180</v>
+      </c>
+      <c r="E27" s="3">
+        <v>45191</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45182</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -7755,11 +7619,11 @@
       <c r="K27" t="s">
         <v>397</v>
       </c>
-      <c r="M27" t="s">
-        <v>436</v>
+      <c r="M27">
+        <v>44015</v>
       </c>
       <c r="N27" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -7772,14 +7636,14 @@
       <c r="C28">
         <v>5</v>
       </c>
-      <c r="D28" s="2">
-        <v>36091</v>
-      </c>
-      <c r="E28" s="2">
-        <v>36096</v>
-      </c>
-      <c r="F28" s="2">
-        <v>36096</v>
+      <c r="D28" s="3">
+        <v>45588</v>
+      </c>
+      <c r="E28" s="3">
+        <v>45593</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45593</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -7796,11 +7660,11 @@
       <c r="K28" t="s">
         <v>383</v>
       </c>
-      <c r="M28" t="s">
-        <v>405</v>
+      <c r="M28">
+        <v>65230</v>
       </c>
       <c r="N28" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -7813,14 +7677,14 @@
       <c r="C29">
         <v>6</v>
       </c>
-      <c r="D29" s="2">
-        <v>35316</v>
-      </c>
-      <c r="E29" s="2">
-        <v>35323</v>
-      </c>
-      <c r="F29" s="2">
-        <v>35324</v>
+      <c r="D29" s="3">
+        <v>44812</v>
+      </c>
+      <c r="E29" s="3">
+        <v>44819</v>
+      </c>
+      <c r="F29" s="3">
+        <v>44820</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -7837,8 +7701,8 @@
       <c r="K29" t="s">
         <v>384</v>
       </c>
-      <c r="M29" t="s">
-        <v>429</v>
+      <c r="M29">
+        <v>42964</v>
       </c>
       <c r="N29" t="s">
         <v>73</v>
@@ -7854,14 +7718,14 @@
       <c r="C30">
         <v>9</v>
       </c>
-      <c r="D30" s="2">
-        <v>35698</v>
-      </c>
-      <c r="E30" s="2">
-        <v>35718</v>
-      </c>
-      <c r="F30" s="2">
-        <v>35710</v>
+      <c r="D30" s="3">
+        <v>45194</v>
+      </c>
+      <c r="E30" s="3">
+        <v>45214</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45206</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -7878,11 +7742,11 @@
       <c r="K30" t="s">
         <v>399</v>
       </c>
-      <c r="M30" t="s">
-        <v>439</v>
+      <c r="M30">
+        <v>29429</v>
       </c>
       <c r="N30" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -7895,14 +7759,14 @@
       <c r="C31">
         <v>10</v>
       </c>
-      <c r="D31" s="2">
-        <v>35656</v>
-      </c>
-      <c r="E31" s="2">
-        <v>35664</v>
-      </c>
-      <c r="F31" s="2">
-        <v>35660</v>
+      <c r="D31" s="3">
+        <v>45152</v>
+      </c>
+      <c r="E31" s="3">
+        <v>45160</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45156</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -7919,8 +7783,8 @@
       <c r="K31" t="s">
         <v>379</v>
       </c>
-      <c r="M31" t="s">
-        <v>431</v>
+      <c r="M31">
+        <v>26678</v>
       </c>
       <c r="N31" t="s">
         <v>67</v>
@@ -7936,14 +7800,14 @@
       <c r="C32">
         <v>6</v>
       </c>
-      <c r="D32" s="2">
-        <v>35212</v>
-      </c>
-      <c r="E32" s="2">
-        <v>35217</v>
-      </c>
-      <c r="F32" s="2">
-        <v>35220</v>
+      <c r="D32" s="3">
+        <v>44708</v>
+      </c>
+      <c r="E32" s="3">
+        <v>44713</v>
+      </c>
+      <c r="F32" s="3">
+        <v>44716</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -7960,8 +7824,8 @@
       <c r="K32" t="s">
         <v>384</v>
       </c>
-      <c r="M32" t="s">
-        <v>429</v>
+      <c r="M32">
+        <v>42964</v>
       </c>
       <c r="N32" t="s">
         <v>73</v>
@@ -7977,14 +7841,14 @@
       <c r="C33">
         <v>7</v>
       </c>
-      <c r="D33" s="2">
-        <v>35698</v>
-      </c>
-      <c r="E33" s="2">
-        <v>35711</v>
-      </c>
-      <c r="F33" s="2">
-        <v>35707</v>
+      <c r="D33" s="3">
+        <v>45194</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45207</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45203</v>
       </c>
       <c r="G33">
         <v>3</v>
@@ -8001,8 +7865,8 @@
       <c r="K33" t="s">
         <v>388</v>
       </c>
-      <c r="M33" t="s">
-        <v>415</v>
+      <c r="M33">
+        <v>20800</v>
       </c>
       <c r="N33" t="s">
         <v>72</v>
@@ -8018,14 +7882,14 @@
       <c r="C34">
         <v>9</v>
       </c>
-      <c r="D34" s="2">
-        <v>35104</v>
-      </c>
-      <c r="E34" s="2">
-        <v>35123</v>
-      </c>
-      <c r="F34" s="2">
-        <v>35106</v>
+      <c r="D34" s="3">
+        <v>44601</v>
+      </c>
+      <c r="E34" s="3">
+        <v>44620</v>
+      </c>
+      <c r="F34" s="3">
+        <v>44603</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -8042,8 +7906,8 @@
       <c r="K34" t="s">
         <v>390</v>
       </c>
-      <c r="M34" t="s">
-        <v>417</v>
+      <c r="M34">
+        <v>75547</v>
       </c>
       <c r="N34" t="s">
         <v>77</v>
@@ -8059,14 +7923,14 @@
       <c r="C35">
         <v>8</v>
       </c>
-      <c r="D35" s="2">
-        <v>35942</v>
-      </c>
-      <c r="E35" s="2">
-        <v>35949</v>
-      </c>
-      <c r="F35" s="2">
-        <v>35953</v>
+      <c r="D35" s="3">
+        <v>45439</v>
+      </c>
+      <c r="E35" s="3">
+        <v>45446</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45450</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -8083,8 +7947,8 @@
       <c r="K35" t="s">
         <v>385</v>
       </c>
-      <c r="M35" t="s">
-        <v>408</v>
+      <c r="M35">
+        <v>62351</v>
       </c>
       <c r="N35" t="s">
         <v>70</v>
@@ -8100,14 +7964,14 @@
       <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" s="2">
-        <v>35351</v>
-      </c>
-      <c r="E36" s="2">
-        <v>35361</v>
-      </c>
-      <c r="F36" s="2">
-        <v>35353</v>
+      <c r="D36" s="3">
+        <v>44847</v>
+      </c>
+      <c r="E36" s="3">
+        <v>44857</v>
+      </c>
+      <c r="F36" s="3">
+        <v>44849</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -8124,8 +7988,8 @@
       <c r="K36" t="s">
         <v>85</v>
       </c>
-      <c r="M36" t="s">
-        <v>407</v>
+      <c r="M36">
+        <v>73031</v>
       </c>
       <c r="N36" t="s">
         <v>71</v>
@@ -8141,14 +8005,14 @@
       <c r="C37">
         <v>5</v>
       </c>
-      <c r="D37" s="2">
-        <v>35756</v>
-      </c>
-      <c r="E37" s="2">
-        <v>35763</v>
-      </c>
-      <c r="F37" s="2">
-        <v>35762</v>
+      <c r="D37" s="3">
+        <v>45252</v>
+      </c>
+      <c r="E37" s="3">
+        <v>45259</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45258</v>
       </c>
       <c r="G37">
         <v>3</v>
@@ -8165,8 +8029,8 @@
       <c r="K37" t="s">
         <v>398</v>
       </c>
-      <c r="M37" t="s">
-        <v>437</v>
+      <c r="M37">
+        <v>46242</v>
       </c>
       <c r="N37" t="s">
         <v>71</v>
@@ -8182,14 +8046,14 @@
       <c r="C38">
         <v>4</v>
       </c>
-      <c r="D38" s="2">
-        <v>35175</v>
-      </c>
-      <c r="E38" s="2">
-        <v>35194</v>
-      </c>
-      <c r="F38" s="2">
-        <v>35182</v>
+      <c r="D38" s="3">
+        <v>44671</v>
+      </c>
+      <c r="E38" s="3">
+        <v>44690</v>
+      </c>
+      <c r="F38" s="3">
+        <v>44678</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -8206,11 +8070,11 @@
       <c r="K38" t="s">
         <v>383</v>
       </c>
-      <c r="M38" t="s">
-        <v>405</v>
+      <c r="M38">
+        <v>65230</v>
       </c>
       <c r="N38" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -8223,14 +8087,14 @@
       <c r="C39">
         <v>5</v>
       </c>
-      <c r="D39" s="2">
-        <v>35522</v>
-      </c>
-      <c r="E39" s="2">
-        <v>35534</v>
-      </c>
-      <c r="F39" s="2">
-        <v>35530</v>
+      <c r="D39" s="3">
+        <v>45018</v>
+      </c>
+      <c r="E39" s="3">
+        <v>45030</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45026</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -8247,8 +8111,8 @@
       <c r="K39" t="s">
         <v>380</v>
       </c>
-      <c r="M39" t="s">
-        <v>402</v>
+      <c r="M39">
+        <v>65155</v>
       </c>
       <c r="N39" t="s">
         <v>68</v>
@@ -8264,14 +8128,14 @@
       <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" s="2">
-        <v>35494</v>
-      </c>
-      <c r="E40" s="2">
-        <v>35503</v>
-      </c>
-      <c r="F40" s="2">
-        <v>35508</v>
+      <c r="D40" s="3">
+        <v>44990</v>
+      </c>
+      <c r="E40" s="3">
+        <v>44999</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45004</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -8288,8 +8152,8 @@
       <c r="K40" t="s">
         <v>384</v>
       </c>
-      <c r="M40" t="s">
-        <v>429</v>
+      <c r="M40">
+        <v>42964</v>
       </c>
       <c r="N40" t="s">
         <v>73</v>
@@ -8305,14 +8169,14 @@
       <c r="C41">
         <v>3</v>
       </c>
-      <c r="D41" s="2">
-        <v>35707</v>
-      </c>
-      <c r="E41" s="2">
-        <v>35715</v>
-      </c>
-      <c r="F41" s="2">
-        <v>35712</v>
+      <c r="D41" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E41" s="3">
+        <v>45211</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45208</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -8329,8 +8193,8 @@
       <c r="K41" t="s">
         <v>391</v>
       </c>
-      <c r="M41" t="s">
-        <v>419</v>
+      <c r="M41">
+        <v>35806</v>
       </c>
       <c r="N41" t="s">
         <v>75</v>
@@ -8346,14 +8210,14 @@
       <c r="C42">
         <v>7</v>
       </c>
-      <c r="D42" s="2">
-        <v>35984</v>
-      </c>
-      <c r="E42" s="2">
-        <v>35992</v>
-      </c>
-      <c r="F42" s="2">
-        <v>35985</v>
+      <c r="D42" s="3">
+        <v>45481</v>
+      </c>
+      <c r="E42" s="3">
+        <v>45489</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45482</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -8370,8 +8234,8 @@
       <c r="K42" t="s">
         <v>388</v>
       </c>
-      <c r="M42" t="s">
-        <v>415</v>
+      <c r="M42">
+        <v>20800</v>
       </c>
       <c r="N42" t="s">
         <v>72</v>
@@ -8387,14 +8251,14 @@
       <c r="C43">
         <v>4</v>
       </c>
-      <c r="D43" s="2">
-        <v>35962</v>
-      </c>
-      <c r="E43" s="2">
-        <v>35978</v>
-      </c>
-      <c r="F43" s="2">
-        <v>35965</v>
+      <c r="D43" s="3">
+        <v>45459</v>
+      </c>
+      <c r="E43" s="3">
+        <v>45475</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45462</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -8411,8 +8275,8 @@
       <c r="K43" t="s">
         <v>378</v>
       </c>
-      <c r="M43" t="s">
-        <v>400</v>
+      <c r="M43">
+        <v>30471</v>
       </c>
       <c r="N43" t="s">
         <v>68</v>
@@ -8428,14 +8292,14 @@
       <c r="C44">
         <v>4</v>
       </c>
-      <c r="D44" s="2">
-        <v>35970</v>
-      </c>
-      <c r="E44" s="2">
-        <v>35980</v>
-      </c>
-      <c r="F44" s="2">
-        <v>35971</v>
+      <c r="D44" s="3">
+        <v>45467</v>
+      </c>
+      <c r="E44" s="3">
+        <v>45477</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45468</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -8452,11 +8316,11 @@
       <c r="K44" t="s">
         <v>381</v>
       </c>
-      <c r="M44" t="s">
-        <v>403</v>
+      <c r="M44">
+        <v>42281</v>
       </c>
       <c r="N44" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -8469,14 +8333,14 @@
       <c r="C45">
         <v>7</v>
       </c>
-      <c r="D45" s="2">
-        <v>35196</v>
-      </c>
-      <c r="E45" s="2">
-        <v>35205</v>
-      </c>
-      <c r="F45" s="2">
-        <v>35209</v>
+      <c r="D45" s="3">
+        <v>44692</v>
+      </c>
+      <c r="E45" s="3">
+        <v>44701</v>
+      </c>
+      <c r="F45" s="3">
+        <v>44705</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -8493,8 +8357,8 @@
       <c r="K45" t="s">
         <v>385</v>
       </c>
-      <c r="M45" t="s">
-        <v>409</v>
+      <c r="M45">
+        <v>76182</v>
       </c>
       <c r="N45" t="s">
         <v>70</v>
@@ -8510,14 +8374,14 @@
       <c r="C46">
         <v>9</v>
       </c>
-      <c r="D46" s="2">
-        <v>35367</v>
-      </c>
-      <c r="E46" s="2">
-        <v>35373</v>
-      </c>
-      <c r="F46" s="2">
-        <v>35370</v>
+      <c r="D46" s="3">
+        <v>44863</v>
+      </c>
+      <c r="E46" s="3">
+        <v>44869</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44866</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -8534,8 +8398,8 @@
       <c r="K46" t="s">
         <v>379</v>
       </c>
-      <c r="M46" t="s">
-        <v>401</v>
+      <c r="M46">
+        <v>63045</v>
       </c>
       <c r="N46" t="s">
         <v>67</v>
@@ -8551,14 +8415,14 @@
       <c r="C47">
         <v>9</v>
       </c>
-      <c r="D47" s="2">
-        <v>36159</v>
-      </c>
-      <c r="E47" s="2">
-        <v>36178</v>
-      </c>
-      <c r="F47" s="2">
-        <v>36160</v>
+      <c r="D47" s="3">
+        <v>45656</v>
+      </c>
+      <c r="E47" s="3">
+        <v>45675</v>
+      </c>
+      <c r="F47" s="3">
+        <v>45657</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -8575,8 +8439,8 @@
       <c r="K47" t="s">
         <v>88</v>
       </c>
-      <c r="M47" t="s">
-        <v>435</v>
+      <c r="M47">
+        <v>88355</v>
       </c>
       <c r="N47" t="s">
         <v>74</v>
@@ -8592,14 +8456,14 @@
       <c r="C48">
         <v>8</v>
       </c>
-      <c r="D48" s="2">
-        <v>36046</v>
-      </c>
-      <c r="E48" s="2">
-        <v>36065</v>
-      </c>
-      <c r="F48" s="2">
-        <v>36055</v>
+      <c r="D48" s="3">
+        <v>45543</v>
+      </c>
+      <c r="E48" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45552</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -8616,8 +8480,8 @@
       <c r="K48" t="s">
         <v>388</v>
       </c>
-      <c r="M48" t="s">
-        <v>415</v>
+      <c r="M48">
+        <v>20800</v>
       </c>
       <c r="N48" t="s">
         <v>72</v>
@@ -8633,14 +8497,14 @@
       <c r="C49">
         <v>8</v>
       </c>
-      <c r="D49" s="2">
-        <v>35257</v>
-      </c>
-      <c r="E49" s="2">
-        <v>35260</v>
-      </c>
-      <c r="F49" s="2">
-        <v>35271</v>
+      <c r="D49" s="3">
+        <v>44753</v>
+      </c>
+      <c r="E49" s="3">
+        <v>44756</v>
+      </c>
+      <c r="F49" s="3">
+        <v>44767</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -8657,11 +8521,11 @@
       <c r="K49" t="s">
         <v>395</v>
       </c>
-      <c r="M49" t="s">
-        <v>426</v>
+      <c r="M49">
+        <v>62404</v>
       </c>
       <c r="N49" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -8674,14 +8538,14 @@
       <c r="C50">
         <v>5</v>
       </c>
-      <c r="D50" s="2">
-        <v>35500</v>
-      </c>
-      <c r="E50" s="2">
-        <v>35515</v>
-      </c>
-      <c r="F50" s="2">
-        <v>35510</v>
+      <c r="D50" s="3">
+        <v>44996</v>
+      </c>
+      <c r="E50" s="3">
+        <v>45011</v>
+      </c>
+      <c r="F50" s="3">
+        <v>45006</v>
       </c>
       <c r="G50">
         <v>3</v>
@@ -8698,8 +8562,8 @@
       <c r="K50" t="s">
         <v>86</v>
       </c>
-      <c r="M50" t="s">
-        <v>438</v>
+      <c r="M50">
+        <v>67430</v>
       </c>
       <c r="N50" t="s">
         <v>72</v>
@@ -8715,14 +8579,14 @@
       <c r="C51">
         <v>10</v>
       </c>
-      <c r="D51" s="2">
-        <v>35103</v>
-      </c>
-      <c r="E51" s="2">
-        <v>35123</v>
-      </c>
-      <c r="F51" s="2">
-        <v>35106</v>
+      <c r="D51" s="3">
+        <v>44600</v>
+      </c>
+      <c r="E51" s="3">
+        <v>44620</v>
+      </c>
+      <c r="F51" s="3">
+        <v>44603</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -8739,8 +8603,8 @@
       <c r="K51" t="s">
         <v>394</v>
       </c>
-      <c r="M51" t="s">
-        <v>432</v>
+      <c r="M51">
+        <v>43357</v>
       </c>
       <c r="N51" t="s">
         <v>78</v>
@@ -8756,14 +8620,14 @@
       <c r="C52">
         <v>3</v>
       </c>
-      <c r="D52" s="2">
-        <v>36088</v>
-      </c>
-      <c r="E52" s="2">
-        <v>36091</v>
-      </c>
-      <c r="F52" s="2">
-        <v>36095</v>
+      <c r="D52" s="3">
+        <v>45585</v>
+      </c>
+      <c r="E52" s="3">
+        <v>45588</v>
+      </c>
+      <c r="F52" s="3">
+        <v>45592</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -8780,8 +8644,8 @@
       <c r="K52" t="s">
         <v>94</v>
       </c>
-      <c r="M52" t="s">
-        <v>418</v>
+      <c r="M52">
+        <v>80043</v>
       </c>
       <c r="N52" t="s">
         <v>78</v>
@@ -8797,14 +8661,14 @@
       <c r="C53">
         <v>9</v>
       </c>
-      <c r="D53" s="2">
-        <v>36006</v>
-      </c>
-      <c r="E53" s="2">
-        <v>36018</v>
-      </c>
-      <c r="F53" s="2">
-        <v>36020</v>
+      <c r="D53" s="3">
+        <v>45503</v>
+      </c>
+      <c r="E53" s="3">
+        <v>45515</v>
+      </c>
+      <c r="F53" s="3">
+        <v>45517</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -8821,8 +8685,8 @@
       <c r="K53" t="s">
         <v>379</v>
       </c>
-      <c r="M53" t="s">
-        <v>431</v>
+      <c r="M53">
+        <v>26678</v>
       </c>
       <c r="N53" t="s">
         <v>67</v>
@@ -8838,14 +8702,14 @@
       <c r="C54">
         <v>10</v>
       </c>
-      <c r="D54" s="2">
-        <v>36031</v>
-      </c>
-      <c r="E54" s="2">
-        <v>36044</v>
-      </c>
-      <c r="F54" s="2">
-        <v>36033</v>
+      <c r="D54" s="3">
+        <v>45528</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45541</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45530</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -8862,8 +8726,8 @@
       <c r="K54" t="s">
         <v>82</v>
       </c>
-      <c r="M54" t="s">
-        <v>414</v>
+      <c r="M54">
+        <v>25330</v>
       </c>
       <c r="N54" t="s">
         <v>68</v>
@@ -8879,14 +8743,14 @@
       <c r="C55">
         <v>4</v>
       </c>
-      <c r="D55" s="2">
-        <v>35673</v>
-      </c>
-      <c r="E55" s="2">
-        <v>35691</v>
-      </c>
-      <c r="F55" s="2">
-        <v>35684</v>
+      <c r="D55" s="3">
+        <v>45169</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45187</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45180</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -8903,8 +8767,8 @@
       <c r="K55" t="s">
         <v>379</v>
       </c>
-      <c r="M55" t="s">
-        <v>401</v>
+      <c r="M55">
+        <v>63045</v>
       </c>
       <c r="N55" t="s">
         <v>67</v>
@@ -8920,14 +8784,14 @@
       <c r="C56">
         <v>8</v>
       </c>
-      <c r="D56" s="2">
-        <v>35994</v>
-      </c>
-      <c r="E56" s="2">
-        <v>36004</v>
-      </c>
-      <c r="F56" s="2">
-        <v>35998</v>
+      <c r="D56" s="3">
+        <v>45491</v>
+      </c>
+      <c r="E56" s="3">
+        <v>45501</v>
+      </c>
+      <c r="F56" s="3">
+        <v>45495</v>
       </c>
       <c r="G56">
         <v>2</v>
@@ -8944,8 +8808,8 @@
       <c r="K56" t="s">
         <v>86</v>
       </c>
-      <c r="M56" t="s">
-        <v>438</v>
+      <c r="M56">
+        <v>67430</v>
       </c>
       <c r="N56" t="s">
         <v>72</v>
@@ -8961,14 +8825,14 @@
       <c r="C57">
         <v>10</v>
       </c>
-      <c r="D57" s="2">
-        <v>35836</v>
-      </c>
-      <c r="E57" s="2">
-        <v>35850</v>
-      </c>
-      <c r="F57" s="2">
-        <v>35838</v>
+      <c r="D57" s="3">
+        <v>45332</v>
+      </c>
+      <c r="E57" s="3">
+        <v>45346</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45334</v>
       </c>
       <c r="G57">
         <v>3</v>
@@ -8985,8 +8849,8 @@
       <c r="K57" t="s">
         <v>88</v>
       </c>
-      <c r="M57" t="s">
-        <v>435</v>
+      <c r="M57">
+        <v>88355</v>
       </c>
       <c r="N57" t="s">
         <v>74</v>
@@ -9002,14 +8866,14 @@
       <c r="C58">
         <v>4</v>
       </c>
-      <c r="D58" s="2">
-        <v>36140</v>
-      </c>
-      <c r="E58" s="2">
-        <v>36159</v>
-      </c>
-      <c r="F58" s="2">
-        <v>36152</v>
+      <c r="D58" s="3">
+        <v>45637</v>
+      </c>
+      <c r="E58" s="3">
+        <v>45656</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45649</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -9026,8 +8890,8 @@
       <c r="K58" t="s">
         <v>380</v>
       </c>
-      <c r="M58" t="s">
-        <v>402</v>
+      <c r="M58">
+        <v>65155</v>
       </c>
       <c r="N58" t="s">
         <v>68</v>
@@ -9043,14 +8907,14 @@
       <c r="C59">
         <v>5</v>
       </c>
-      <c r="D59" s="2">
-        <v>35448</v>
-      </c>
-      <c r="E59" s="2">
-        <v>35469</v>
-      </c>
-      <c r="F59" s="2">
-        <v>35450</v>
+      <c r="D59" s="3">
+        <v>44944</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44965</v>
+      </c>
+      <c r="F59" s="3">
+        <v>44946</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -9067,11 +8931,11 @@
       <c r="K59" t="s">
         <v>395</v>
       </c>
-      <c r="M59" t="s">
-        <v>426</v>
+      <c r="M59">
+        <v>62404</v>
       </c>
       <c r="N59" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -9084,14 +8948,14 @@
       <c r="C60">
         <v>7</v>
       </c>
-      <c r="D60" s="2">
-        <v>35232</v>
-      </c>
-      <c r="E60" s="2">
-        <v>35235</v>
-      </c>
-      <c r="F60" s="2">
-        <v>35238</v>
+      <c r="D60" s="3">
+        <v>44728</v>
+      </c>
+      <c r="E60" s="3">
+        <v>44731</v>
+      </c>
+      <c r="F60" s="3">
+        <v>44734</v>
       </c>
       <c r="G60">
         <v>3</v>
@@ -9108,8 +8972,8 @@
       <c r="K60" t="s">
         <v>389</v>
       </c>
-      <c r="M60" t="s">
-        <v>416</v>
+      <c r="M60">
+        <v>61456</v>
       </c>
       <c r="N60" t="s">
         <v>67</v>
@@ -9125,14 +8989,14 @@
       <c r="C61">
         <v>6</v>
       </c>
-      <c r="D61" s="2">
-        <v>35700</v>
-      </c>
-      <c r="E61" s="2">
-        <v>35717</v>
-      </c>
-      <c r="F61" s="2">
-        <v>35713</v>
+      <c r="D61" s="3">
+        <v>45196</v>
+      </c>
+      <c r="E61" s="3">
+        <v>45213</v>
+      </c>
+      <c r="F61" s="3">
+        <v>45209</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -9149,11 +9013,11 @@
       <c r="K61" t="s">
         <v>397</v>
       </c>
-      <c r="M61" t="s">
-        <v>436</v>
+      <c r="M61">
+        <v>44015</v>
       </c>
       <c r="N61" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -9166,14 +9030,14 @@
       <c r="C62">
         <v>2</v>
       </c>
-      <c r="D62" s="2">
-        <v>35949</v>
-      </c>
-      <c r="E62" s="2">
-        <v>35954</v>
-      </c>
-      <c r="F62" s="2">
-        <v>35955</v>
+      <c r="D62" s="3">
+        <v>45446</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45451</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45452</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -9190,11 +9054,11 @@
       <c r="K62" t="s">
         <v>386</v>
       </c>
-      <c r="M62" t="s">
-        <v>411</v>
+      <c r="M62">
+        <v>54715</v>
       </c>
       <c r="N62" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -9207,14 +9071,14 @@
       <c r="C63">
         <v>1</v>
       </c>
-      <c r="D63" s="2">
-        <v>35897</v>
-      </c>
-      <c r="E63" s="2">
-        <v>35905</v>
-      </c>
-      <c r="F63" s="2">
-        <v>35907</v>
+      <c r="D63" s="3">
+        <v>45394</v>
+      </c>
+      <c r="E63" s="3">
+        <v>45402</v>
+      </c>
+      <c r="F63" s="3">
+        <v>45404</v>
       </c>
       <c r="G63">
         <v>3</v>
@@ -9231,11 +9095,11 @@
       <c r="K63" t="s">
         <v>381</v>
       </c>
-      <c r="M63" t="s">
-        <v>403</v>
+      <c r="M63">
+        <v>42281</v>
       </c>
       <c r="N63" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -9248,14 +9112,14 @@
       <c r="C64">
         <v>4</v>
       </c>
-      <c r="D64" s="2">
-        <v>35699</v>
-      </c>
-      <c r="E64" s="2">
-        <v>35713</v>
-      </c>
-      <c r="F64" s="2">
-        <v>35709</v>
+      <c r="D64" s="3">
+        <v>45195</v>
+      </c>
+      <c r="E64" s="3">
+        <v>45209</v>
+      </c>
+      <c r="F64" s="3">
+        <v>45205</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -9272,8 +9136,8 @@
       <c r="K64" t="s">
         <v>384</v>
       </c>
-      <c r="M64" t="s">
-        <v>406</v>
+      <c r="M64">
+        <v>78902</v>
       </c>
       <c r="N64" t="s">
         <v>73</v>
@@ -9289,14 +9153,14 @@
       <c r="C65">
         <v>9</v>
       </c>
-      <c r="D65" s="2">
-        <v>35410</v>
-      </c>
-      <c r="E65" s="2">
-        <v>35429</v>
-      </c>
-      <c r="F65" s="2">
-        <v>35418</v>
+      <c r="D65" s="3">
+        <v>44906</v>
+      </c>
+      <c r="E65" s="3">
+        <v>44925</v>
+      </c>
+      <c r="F65" s="3">
+        <v>44914</v>
       </c>
       <c r="G65">
         <v>3</v>
@@ -9313,8 +9177,8 @@
       <c r="K65" t="s">
         <v>391</v>
       </c>
-      <c r="M65" t="s">
-        <v>419</v>
+      <c r="M65">
+        <v>35806</v>
       </c>
       <c r="N65" t="s">
         <v>75</v>
@@ -9330,14 +9194,14 @@
       <c r="C66">
         <v>5</v>
       </c>
-      <c r="D66" s="2">
-        <v>35862</v>
-      </c>
-      <c r="E66" s="2">
-        <v>35865</v>
-      </c>
-      <c r="F66" s="2">
-        <v>35873</v>
+      <c r="D66" s="3">
+        <v>45359</v>
+      </c>
+      <c r="E66" s="3">
+        <v>45362</v>
+      </c>
+      <c r="F66" s="3">
+        <v>45370</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -9354,8 +9218,8 @@
       <c r="K66" t="s">
         <v>94</v>
       </c>
-      <c r="M66" t="s">
-        <v>418</v>
+      <c r="M66">
+        <v>80043</v>
       </c>
       <c r="N66" t="s">
         <v>78</v>
@@ -9371,14 +9235,14 @@
       <c r="C67">
         <v>2</v>
       </c>
-      <c r="D67" s="2">
-        <v>35596</v>
-      </c>
-      <c r="E67" s="2">
-        <v>35601</v>
-      </c>
-      <c r="F67" s="2">
-        <v>35605</v>
+      <c r="D67" s="3">
+        <v>45092</v>
+      </c>
+      <c r="E67" s="3">
+        <v>45097</v>
+      </c>
+      <c r="F67" s="3">
+        <v>45101</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -9395,11 +9259,11 @@
       <c r="K67" t="s">
         <v>392</v>
       </c>
-      <c r="M67" t="s">
-        <v>422</v>
+      <c r="M67">
+        <v>92925</v>
       </c>
       <c r="N67" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -9412,14 +9276,14 @@
       <c r="C68">
         <v>10</v>
       </c>
-      <c r="D68" s="2">
-        <v>36006</v>
-      </c>
-      <c r="E68" s="2">
-        <v>36025</v>
-      </c>
-      <c r="F68" s="2">
-        <v>36007</v>
+      <c r="D68" s="3">
+        <v>45503</v>
+      </c>
+      <c r="E68" s="3">
+        <v>45522</v>
+      </c>
+      <c r="F68" s="3">
+        <v>45504</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -9436,8 +9300,8 @@
       <c r="K68" t="s">
         <v>394</v>
       </c>
-      <c r="M68" t="s">
-        <v>432</v>
+      <c r="M68">
+        <v>43357</v>
       </c>
       <c r="N68" t="s">
         <v>78</v>
@@ -9453,14 +9317,14 @@
       <c r="C69">
         <v>9</v>
       </c>
-      <c r="D69" s="2">
-        <v>35915</v>
-      </c>
-      <c r="E69" s="2">
-        <v>35926</v>
-      </c>
-      <c r="F69" s="2">
-        <v>35925</v>
+      <c r="D69" s="3">
+        <v>45412</v>
+      </c>
+      <c r="E69" s="3">
+        <v>45423</v>
+      </c>
+      <c r="F69" s="3">
+        <v>45422</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -9477,8 +9341,8 @@
       <c r="K69" t="s">
         <v>388</v>
       </c>
-      <c r="M69" t="s">
-        <v>421</v>
+      <c r="M69">
+        <v>45744</v>
       </c>
       <c r="N69" t="s">
         <v>72</v>
@@ -9494,14 +9358,14 @@
       <c r="C70">
         <v>10</v>
       </c>
-      <c r="D70" s="2">
-        <v>36004</v>
-      </c>
-      <c r="E70" s="2">
-        <v>36020</v>
-      </c>
-      <c r="F70" s="2">
-        <v>36008</v>
+      <c r="D70" s="3">
+        <v>45501</v>
+      </c>
+      <c r="E70" s="3">
+        <v>45517</v>
+      </c>
+      <c r="F70" s="3">
+        <v>45505</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -9518,8 +9382,8 @@
       <c r="K70" t="s">
         <v>387</v>
       </c>
-      <c r="M70" t="s">
-        <v>413</v>
+      <c r="M70">
+        <v>77556</v>
       </c>
       <c r="N70" t="s">
         <v>68</v>
@@ -9535,14 +9399,14 @@
       <c r="C71">
         <v>7</v>
       </c>
-      <c r="D71" s="2">
-        <v>36087</v>
-      </c>
-      <c r="E71" s="2">
-        <v>36091</v>
-      </c>
-      <c r="F71" s="2">
-        <v>36093</v>
+      <c r="D71" s="3">
+        <v>45584</v>
+      </c>
+      <c r="E71" s="3">
+        <v>45588</v>
+      </c>
+      <c r="F71" s="3">
+        <v>45590</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -9559,8 +9423,8 @@
       <c r="K71" t="s">
         <v>390</v>
       </c>
-      <c r="M71" t="s">
-        <v>417</v>
+      <c r="M71">
+        <v>75547</v>
       </c>
       <c r="N71" t="s">
         <v>77</v>
@@ -9576,14 +9440,14 @@
       <c r="C72">
         <v>4</v>
       </c>
-      <c r="D72" s="2">
-        <v>36049</v>
-      </c>
-      <c r="E72" s="2">
-        <v>36056</v>
-      </c>
-      <c r="F72" s="2">
-        <v>36060</v>
+      <c r="D72" s="3">
+        <v>45546</v>
+      </c>
+      <c r="E72" s="3">
+        <v>45553</v>
+      </c>
+      <c r="F72" s="3">
+        <v>45557</v>
       </c>
       <c r="G72">
         <v>2</v>
@@ -9600,8 +9464,8 @@
       <c r="K72" t="s">
         <v>380</v>
       </c>
-      <c r="M72" t="s">
-        <v>402</v>
+      <c r="M72">
+        <v>65155</v>
       </c>
       <c r="N72" t="s">
         <v>68</v>
@@ -9617,14 +9481,14 @@
       <c r="C73">
         <v>6</v>
       </c>
-      <c r="D73" s="2">
-        <v>35810</v>
-      </c>
-      <c r="E73" s="2">
-        <v>35814</v>
-      </c>
-      <c r="F73" s="2">
-        <v>35812</v>
+      <c r="D73" s="3">
+        <v>45306</v>
+      </c>
+      <c r="E73" s="3">
+        <v>45310</v>
+      </c>
+      <c r="F73" s="3">
+        <v>45308</v>
       </c>
       <c r="G73">
         <v>3</v>
@@ -9641,8 +9505,8 @@
       <c r="K73" t="s">
         <v>393</v>
       </c>
-      <c r="M73" t="s">
-        <v>423</v>
+      <c r="M73">
+        <v>48889</v>
       </c>
       <c r="N73" t="s">
         <v>75</v>
@@ -9658,14 +9522,14 @@
       <c r="C74">
         <v>3</v>
       </c>
-      <c r="D74" s="2">
-        <v>35733</v>
-      </c>
-      <c r="E74" s="2">
-        <v>35744</v>
-      </c>
-      <c r="F74" s="2">
-        <v>35737</v>
+      <c r="D74" s="3">
+        <v>45229</v>
+      </c>
+      <c r="E74" s="3">
+        <v>45240</v>
+      </c>
+      <c r="F74" s="3">
+        <v>45233</v>
       </c>
       <c r="G74">
         <v>3</v>
@@ -9682,8 +9546,8 @@
       <c r="K74" t="s">
         <v>398</v>
       </c>
-      <c r="M74" t="s">
-        <v>437</v>
+      <c r="M74">
+        <v>46242</v>
       </c>
       <c r="N74" t="s">
         <v>71</v>
@@ -9699,14 +9563,14 @@
       <c r="C75">
         <v>8</v>
       </c>
-      <c r="D75" s="2">
-        <v>35649</v>
-      </c>
-      <c r="E75" s="2">
-        <v>35669</v>
-      </c>
-      <c r="F75" s="2">
-        <v>35662</v>
+      <c r="D75" s="3">
+        <v>45145</v>
+      </c>
+      <c r="E75" s="3">
+        <v>45165</v>
+      </c>
+      <c r="F75" s="3">
+        <v>45158</v>
       </c>
       <c r="G75">
         <v>3</v>
@@ -9723,8 +9587,8 @@
       <c r="K75" t="s">
         <v>388</v>
       </c>
-      <c r="M75" t="s">
-        <v>415</v>
+      <c r="M75">
+        <v>20800</v>
       </c>
       <c r="N75" t="s">
         <v>72</v>
@@ -9740,14 +9604,14 @@
       <c r="C76">
         <v>6</v>
       </c>
-      <c r="D76" s="2">
-        <v>36074</v>
-      </c>
-      <c r="E76" s="2">
-        <v>36088</v>
-      </c>
-      <c r="F76" s="2">
-        <v>36088</v>
+      <c r="D76" s="3">
+        <v>45571</v>
+      </c>
+      <c r="E76" s="3">
+        <v>45585</v>
+      </c>
+      <c r="F76" s="3">
+        <v>45585</v>
       </c>
       <c r="G76">
         <v>3</v>
@@ -9764,8 +9628,8 @@
       <c r="K76" t="s">
         <v>82</v>
       </c>
-      <c r="M76" t="s">
-        <v>414</v>
+      <c r="M76">
+        <v>25330</v>
       </c>
       <c r="N76" t="s">
         <v>68</v>
@@ -9781,14 +9645,14 @@
       <c r="C77">
         <v>8</v>
       </c>
-      <c r="D77" s="2">
-        <v>36065</v>
-      </c>
-      <c r="E77" s="2">
-        <v>36069</v>
-      </c>
-      <c r="F77" s="2">
-        <v>36075</v>
+      <c r="D77" s="3">
+        <v>45562</v>
+      </c>
+      <c r="E77" s="3">
+        <v>45566</v>
+      </c>
+      <c r="F77" s="3">
+        <v>45572</v>
       </c>
       <c r="G77">
         <v>3</v>
@@ -9805,11 +9669,11 @@
       <c r="K77" t="s">
         <v>392</v>
       </c>
-      <c r="M77" t="s">
-        <v>422</v>
+      <c r="M77">
+        <v>92925</v>
       </c>
       <c r="N77" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -9822,14 +9686,14 @@
       <c r="C78">
         <v>9</v>
       </c>
-      <c r="D78" s="2">
-        <v>35352</v>
-      </c>
-      <c r="E78" s="2">
-        <v>35372</v>
-      </c>
-      <c r="F78" s="2">
-        <v>35366</v>
+      <c r="D78" s="3">
+        <v>44848</v>
+      </c>
+      <c r="E78" s="3">
+        <v>44868</v>
+      </c>
+      <c r="F78" s="3">
+        <v>44862</v>
       </c>
       <c r="G78">
         <v>2</v>
@@ -9846,8 +9710,8 @@
       <c r="K78" t="s">
         <v>394</v>
       </c>
-      <c r="M78" t="s">
-        <v>424</v>
+      <c r="M78">
+        <v>31138</v>
       </c>
       <c r="N78" t="s">
         <v>78</v>
@@ -9863,14 +9727,14 @@
       <c r="C79">
         <v>2</v>
       </c>
-      <c r="D79" s="2">
-        <v>35626</v>
-      </c>
-      <c r="E79" s="2">
-        <v>35638</v>
-      </c>
-      <c r="F79" s="2">
-        <v>35628</v>
+      <c r="D79" s="3">
+        <v>45122</v>
+      </c>
+      <c r="E79" s="3">
+        <v>45134</v>
+      </c>
+      <c r="F79" s="3">
+        <v>45124</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -9887,8 +9751,8 @@
       <c r="K79" t="s">
         <v>379</v>
       </c>
-      <c r="M79" t="s">
-        <v>431</v>
+      <c r="M79">
+        <v>26678</v>
       </c>
       <c r="N79" t="s">
         <v>67</v>
@@ -9904,14 +9768,14 @@
       <c r="C80">
         <v>6</v>
       </c>
-      <c r="D80" s="2">
-        <v>35360</v>
-      </c>
-      <c r="E80" s="2">
-        <v>35374</v>
-      </c>
-      <c r="F80" s="2">
-        <v>35372</v>
+      <c r="D80" s="3">
+        <v>44856</v>
+      </c>
+      <c r="E80" s="3">
+        <v>44870</v>
+      </c>
+      <c r="F80" s="3">
+        <v>44868</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -9928,8 +9792,8 @@
       <c r="K80" t="s">
         <v>379</v>
       </c>
-      <c r="M80" t="s">
-        <v>431</v>
+      <c r="M80">
+        <v>26678</v>
       </c>
       <c r="N80" t="s">
         <v>67</v>
@@ -9945,14 +9809,14 @@
       <c r="C81">
         <v>6</v>
       </c>
-      <c r="D81" s="2">
-        <v>35223</v>
-      </c>
-      <c r="E81" s="2">
-        <v>35239</v>
-      </c>
-      <c r="F81" s="2">
-        <v>35225</v>
+      <c r="D81" s="3">
+        <v>44719</v>
+      </c>
+      <c r="E81" s="3">
+        <v>44735</v>
+      </c>
+      <c r="F81" s="3">
+        <v>44721</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -9969,8 +9833,8 @@
       <c r="K81" t="s">
         <v>387</v>
       </c>
-      <c r="M81" t="s">
-        <v>413</v>
+      <c r="M81">
+        <v>77556</v>
       </c>
       <c r="N81" t="s">
         <v>68</v>
@@ -9986,14 +9850,14 @@
       <c r="C82">
         <v>8</v>
       </c>
-      <c r="D82" s="2">
-        <v>35421</v>
-      </c>
-      <c r="E82" s="2">
-        <v>35440</v>
-      </c>
-      <c r="F82" s="2">
-        <v>35425</v>
+      <c r="D82" s="3">
+        <v>44917</v>
+      </c>
+      <c r="E82" s="3">
+        <v>44936</v>
+      </c>
+      <c r="F82" s="3">
+        <v>44921</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -10010,11 +9874,11 @@
       <c r="K82" t="s">
         <v>381</v>
       </c>
-      <c r="M82" t="s">
-        <v>403</v>
+      <c r="M82">
+        <v>42281</v>
       </c>
       <c r="N82" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -10027,14 +9891,14 @@
       <c r="C83">
         <v>3</v>
       </c>
-      <c r="D83" s="2">
-        <v>35432</v>
-      </c>
-      <c r="E83" s="2">
-        <v>35436</v>
-      </c>
-      <c r="F83" s="2">
-        <v>35443</v>
+      <c r="D83" s="3">
+        <v>44928</v>
+      </c>
+      <c r="E83" s="3">
+        <v>44932</v>
+      </c>
+      <c r="F83" s="3">
+        <v>44939</v>
       </c>
       <c r="G83">
         <v>3</v>
@@ -10051,11 +9915,11 @@
       <c r="K83" t="s">
         <v>386</v>
       </c>
-      <c r="M83" t="s">
-        <v>433</v>
+      <c r="M83">
+        <v>33381</v>
       </c>
       <c r="N83" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -10068,14 +9932,14 @@
       <c r="C84">
         <v>3</v>
       </c>
-      <c r="D84" s="2">
-        <v>35308</v>
-      </c>
-      <c r="E84" s="2">
-        <v>35318</v>
-      </c>
-      <c r="F84" s="2">
-        <v>35314</v>
+      <c r="D84" s="3">
+        <v>44804</v>
+      </c>
+      <c r="E84" s="3">
+        <v>44814</v>
+      </c>
+      <c r="F84" s="3">
+        <v>44810</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -10092,8 +9956,8 @@
       <c r="K84" t="s">
         <v>88</v>
       </c>
-      <c r="M84" t="s">
-        <v>435</v>
+      <c r="M84">
+        <v>88355</v>
       </c>
       <c r="N84" t="s">
         <v>74</v>
@@ -10109,14 +9973,14 @@
       <c r="C85">
         <v>8</v>
       </c>
-      <c r="D85" s="2">
-        <v>35845</v>
-      </c>
-      <c r="E85" s="2">
-        <v>35859</v>
-      </c>
-      <c r="F85" s="2">
-        <v>35848</v>
+      <c r="D85" s="3">
+        <v>45341</v>
+      </c>
+      <c r="E85" s="3">
+        <v>45356</v>
+      </c>
+      <c r="F85" s="3">
+        <v>45344</v>
       </c>
       <c r="G85">
         <v>2</v>
@@ -10133,8 +9997,8 @@
       <c r="K85" t="s">
         <v>388</v>
       </c>
-      <c r="M85" t="s">
-        <v>415</v>
+      <c r="M85">
+        <v>20800</v>
       </c>
       <c r="N85" t="s">
         <v>72</v>
@@ -10150,14 +10014,14 @@
       <c r="C86">
         <v>4</v>
       </c>
-      <c r="D86" s="2">
-        <v>36127</v>
-      </c>
-      <c r="E86" s="2">
-        <v>36133</v>
-      </c>
-      <c r="F86" s="2">
-        <v>36141</v>
+      <c r="D86" s="3">
+        <v>45624</v>
+      </c>
+      <c r="E86" s="3">
+        <v>45630</v>
+      </c>
+      <c r="F86" s="3">
+        <v>45638</v>
       </c>
       <c r="G86">
         <v>2</v>
@@ -10174,8 +10038,8 @@
       <c r="K86" t="s">
         <v>389</v>
       </c>
-      <c r="M86" t="s">
-        <v>427</v>
+      <c r="M86">
+        <v>98083</v>
       </c>
       <c r="N86" t="s">
         <v>67</v>
@@ -10191,14 +10055,14 @@
       <c r="C87">
         <v>9</v>
       </c>
-      <c r="D87" s="2">
-        <v>35202</v>
-      </c>
-      <c r="E87" s="2">
-        <v>35205</v>
-      </c>
-      <c r="F87" s="2">
-        <v>35211</v>
+      <c r="D87" s="3">
+        <v>44698</v>
+      </c>
+      <c r="E87" s="3">
+        <v>44701</v>
+      </c>
+      <c r="F87" s="3">
+        <v>44707</v>
       </c>
       <c r="G87">
         <v>3</v>
@@ -10215,8 +10079,8 @@
       <c r="K87" t="s">
         <v>382</v>
       </c>
-      <c r="M87" t="s">
-        <v>404</v>
+      <c r="M87">
+        <v>83750</v>
       </c>
       <c r="N87" t="s">
         <v>69</v>
@@ -10232,14 +10096,14 @@
       <c r="C88">
         <v>3</v>
       </c>
-      <c r="D88" s="2">
-        <v>35964</v>
-      </c>
-      <c r="E88" s="2">
-        <v>35983</v>
-      </c>
-      <c r="F88" s="2">
-        <v>35971</v>
+      <c r="D88" s="3">
+        <v>45461</v>
+      </c>
+      <c r="E88" s="3">
+        <v>45480</v>
+      </c>
+      <c r="F88" s="3">
+        <v>45468</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -10256,11 +10120,11 @@
       <c r="K88" t="s">
         <v>392</v>
       </c>
-      <c r="M88" t="s">
-        <v>422</v>
+      <c r="M88">
+        <v>92925</v>
       </c>
       <c r="N88" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -10273,14 +10137,14 @@
       <c r="C89">
         <v>2</v>
       </c>
-      <c r="D89" s="2">
-        <v>35405</v>
-      </c>
-      <c r="E89" s="2">
-        <v>35408</v>
-      </c>
-      <c r="F89" s="2">
-        <v>35419</v>
+      <c r="D89" s="3">
+        <v>44901</v>
+      </c>
+      <c r="E89" s="3">
+        <v>44904</v>
+      </c>
+      <c r="F89" s="3">
+        <v>44915</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -10297,8 +10161,8 @@
       <c r="K89" t="s">
         <v>82</v>
       </c>
-      <c r="M89" t="s">
-        <v>414</v>
+      <c r="M89">
+        <v>25330</v>
       </c>
       <c r="N89" t="s">
         <v>68</v>
@@ -10314,14 +10178,14 @@
       <c r="C90">
         <v>4</v>
       </c>
-      <c r="D90" s="2">
-        <v>36124</v>
-      </c>
-      <c r="E90" s="2">
-        <v>36129</v>
-      </c>
-      <c r="F90" s="2">
-        <v>36129</v>
+      <c r="D90" s="3">
+        <v>45621</v>
+      </c>
+      <c r="E90" s="3">
+        <v>45626</v>
+      </c>
+      <c r="F90" s="3">
+        <v>45626</v>
       </c>
       <c r="G90">
         <v>3</v>
@@ -10338,8 +10202,8 @@
       <c r="K90" t="s">
         <v>89</v>
       </c>
-      <c r="M90" t="s">
-        <v>412</v>
+      <c r="M90">
+        <v>26388</v>
       </c>
       <c r="N90" t="s">
         <v>75</v>
@@ -10355,14 +10219,14 @@
       <c r="C91">
         <v>9</v>
       </c>
-      <c r="D91" s="2">
-        <v>36005</v>
-      </c>
-      <c r="E91" s="2">
-        <v>36023</v>
-      </c>
-      <c r="F91" s="2">
-        <v>36010</v>
+      <c r="D91" s="3">
+        <v>45502</v>
+      </c>
+      <c r="E91" s="3">
+        <v>45520</v>
+      </c>
+      <c r="F91" s="3">
+        <v>45507</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -10379,8 +10243,8 @@
       <c r="K91" t="s">
         <v>384</v>
       </c>
-      <c r="M91" t="s">
-        <v>429</v>
+      <c r="M91">
+        <v>42964</v>
       </c>
       <c r="N91" t="s">
         <v>73</v>
@@ -10396,14 +10260,14 @@
       <c r="C92">
         <v>4</v>
       </c>
-      <c r="D92" s="2">
-        <v>35292</v>
-      </c>
-      <c r="E92" s="2">
-        <v>35308</v>
-      </c>
-      <c r="F92" s="2">
-        <v>35298</v>
+      <c r="D92" s="3">
+        <v>44788</v>
+      </c>
+      <c r="E92" s="3">
+        <v>44804</v>
+      </c>
+      <c r="F92" s="3">
+        <v>44794</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -10420,8 +10284,8 @@
       <c r="K92" t="s">
         <v>379</v>
       </c>
-      <c r="M92" t="s">
-        <v>431</v>
+      <c r="M92">
+        <v>26678</v>
       </c>
       <c r="N92" t="s">
         <v>67</v>
@@ -10437,14 +10301,14 @@
       <c r="C93">
         <v>6</v>
       </c>
-      <c r="D93" s="2">
-        <v>35338</v>
-      </c>
-      <c r="E93" s="2">
-        <v>35352</v>
-      </c>
-      <c r="F93" s="2">
-        <v>35340</v>
+      <c r="D93" s="3">
+        <v>44834</v>
+      </c>
+      <c r="E93" s="3">
+        <v>44848</v>
+      </c>
+      <c r="F93" s="3">
+        <v>44836</v>
       </c>
       <c r="G93">
         <v>3</v>
@@ -10461,8 +10325,8 @@
       <c r="K93" t="s">
         <v>85</v>
       </c>
-      <c r="M93" t="s">
-        <v>420</v>
+      <c r="M93">
+        <v>71077</v>
       </c>
       <c r="N93" t="s">
         <v>71</v>
@@ -10478,14 +10342,14 @@
       <c r="C94">
         <v>2</v>
       </c>
-      <c r="D94" s="2">
-        <v>36020</v>
-      </c>
-      <c r="E94" s="2">
-        <v>36039</v>
-      </c>
-      <c r="F94" s="2">
-        <v>36025</v>
+      <c r="D94" s="3">
+        <v>45517</v>
+      </c>
+      <c r="E94" s="3">
+        <v>45536</v>
+      </c>
+      <c r="F94" s="3">
+        <v>45522</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -10502,8 +10366,8 @@
       <c r="K94" t="s">
         <v>394</v>
       </c>
-      <c r="M94" t="s">
-        <v>424</v>
+      <c r="M94">
+        <v>31138</v>
       </c>
       <c r="N94" t="s">
         <v>78</v>
@@ -10519,14 +10383,14 @@
       <c r="C95">
         <v>10</v>
       </c>
-      <c r="D95" s="2">
-        <v>35220</v>
-      </c>
-      <c r="E95" s="2">
-        <v>35240</v>
-      </c>
-      <c r="F95" s="2">
-        <v>35226</v>
+      <c r="D95" s="3">
+        <v>44716</v>
+      </c>
+      <c r="E95" s="3">
+        <v>44736</v>
+      </c>
+      <c r="F95" s="3">
+        <v>44722</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -10543,8 +10407,8 @@
       <c r="K95" t="s">
         <v>379</v>
       </c>
-      <c r="M95" t="s">
-        <v>431</v>
+      <c r="M95">
+        <v>26678</v>
       </c>
       <c r="N95" t="s">
         <v>67</v>
@@ -10560,14 +10424,14 @@
       <c r="C96">
         <v>7</v>
       </c>
-      <c r="D96" s="2">
-        <v>35987</v>
-      </c>
-      <c r="E96" s="2">
-        <v>36006</v>
-      </c>
-      <c r="F96" s="2">
-        <v>35992</v>
+      <c r="D96" s="3">
+        <v>45484</v>
+      </c>
+      <c r="E96" s="3">
+        <v>45503</v>
+      </c>
+      <c r="F96" s="3">
+        <v>45489</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -10584,11 +10448,11 @@
       <c r="K96" t="s">
         <v>395</v>
       </c>
-      <c r="M96" t="s">
-        <v>426</v>
+      <c r="M96">
+        <v>62404</v>
       </c>
       <c r="N96" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -10601,14 +10465,14 @@
       <c r="C97">
         <v>9</v>
       </c>
-      <c r="D97" s="2">
-        <v>36055</v>
-      </c>
-      <c r="E97" s="2">
-        <v>36065</v>
-      </c>
-      <c r="F97" s="2">
-        <v>36065</v>
+      <c r="D97" s="3">
+        <v>45552</v>
+      </c>
+      <c r="E97" s="3">
+        <v>45562</v>
+      </c>
+      <c r="F97" s="3">
+        <v>45562</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -10625,8 +10489,8 @@
       <c r="K97" t="s">
         <v>393</v>
       </c>
-      <c r="M97" t="s">
-        <v>423</v>
+      <c r="M97">
+        <v>48889</v>
       </c>
       <c r="N97" t="s">
         <v>75</v>
@@ -10642,14 +10506,14 @@
       <c r="C98">
         <v>2</v>
       </c>
-      <c r="D98" s="2">
-        <v>35630</v>
-      </c>
-      <c r="E98" s="2">
-        <v>35643</v>
-      </c>
-      <c r="F98" s="2">
-        <v>35634</v>
+      <c r="D98" s="3">
+        <v>45126</v>
+      </c>
+      <c r="E98" s="3">
+        <v>45139</v>
+      </c>
+      <c r="F98" s="3">
+        <v>45130</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -10666,8 +10530,8 @@
       <c r="K98" t="s">
         <v>394</v>
       </c>
-      <c r="M98" t="s">
-        <v>424</v>
+      <c r="M98">
+        <v>31138</v>
       </c>
       <c r="N98" t="s">
         <v>78</v>
@@ -10683,14 +10547,14 @@
       <c r="C99">
         <v>9</v>
       </c>
-      <c r="D99" s="2">
-        <v>35764</v>
-      </c>
-      <c r="E99" s="2">
-        <v>35785</v>
-      </c>
-      <c r="F99" s="2">
-        <v>35778</v>
+      <c r="D99" s="3">
+        <v>45260</v>
+      </c>
+      <c r="E99" s="3">
+        <v>45281</v>
+      </c>
+      <c r="F99" s="3">
+        <v>45274</v>
       </c>
       <c r="G99">
         <v>3</v>
@@ -10707,8 +10571,8 @@
       <c r="K99" t="s">
         <v>387</v>
       </c>
-      <c r="M99" t="s">
-        <v>413</v>
+      <c r="M99">
+        <v>77556</v>
       </c>
       <c r="N99" t="s">
         <v>68</v>
@@ -10724,14 +10588,14 @@
       <c r="C100">
         <v>1</v>
       </c>
-      <c r="D100" s="2">
-        <v>36043</v>
-      </c>
-      <c r="E100" s="2">
-        <v>36051</v>
-      </c>
-      <c r="F100" s="2">
-        <v>36051</v>
+      <c r="D100" s="3">
+        <v>45540</v>
+      </c>
+      <c r="E100" s="3">
+        <v>45548</v>
+      </c>
+      <c r="F100" s="3">
+        <v>45548</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -10748,8 +10612,8 @@
       <c r="K100" t="s">
         <v>389</v>
       </c>
-      <c r="M100" t="s">
-        <v>427</v>
+      <c r="M100">
+        <v>98083</v>
       </c>
       <c r="N100" t="s">
         <v>67</v>
@@ -10765,14 +10629,14 @@
       <c r="C101">
         <v>1</v>
       </c>
-      <c r="D101" s="2">
-        <v>35695</v>
-      </c>
-      <c r="E101" s="2">
-        <v>35700</v>
-      </c>
-      <c r="F101" s="2">
-        <v>35702</v>
+      <c r="D101" s="3">
+        <v>45191</v>
+      </c>
+      <c r="E101" s="3">
+        <v>45196</v>
+      </c>
+      <c r="F101" s="3">
+        <v>45198</v>
       </c>
       <c r="G101">
         <v>3</v>
@@ -10789,11 +10653,11 @@
       <c r="K101" t="s">
         <v>392</v>
       </c>
-      <c r="M101" t="s">
-        <v>428</v>
+      <c r="M101">
+        <v>75384</v>
       </c>
       <c r="N101" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -10806,14 +10670,14 @@
       <c r="C102">
         <v>5</v>
       </c>
-      <c r="D102" s="2">
-        <v>35340</v>
-      </c>
-      <c r="E102" s="2">
-        <v>35346</v>
-      </c>
-      <c r="F102" s="2">
-        <v>35352</v>
+      <c r="D102" s="3">
+        <v>44836</v>
+      </c>
+      <c r="E102" s="3">
+        <v>44842</v>
+      </c>
+      <c r="F102" s="3">
+        <v>44848</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -10830,11 +10694,11 @@
       <c r="K102" t="s">
         <v>386</v>
       </c>
-      <c r="M102" t="s">
-        <v>411</v>
+      <c r="M102">
+        <v>54715</v>
       </c>
       <c r="N102" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -10847,14 +10711,14 @@
       <c r="C103">
         <v>6</v>
       </c>
-      <c r="D103" s="2">
-        <v>35742</v>
-      </c>
-      <c r="E103" s="2">
-        <v>35761</v>
-      </c>
-      <c r="F103" s="2">
-        <v>35746</v>
+      <c r="D103" s="3">
+        <v>45238</v>
+      </c>
+      <c r="E103" s="3">
+        <v>45257</v>
+      </c>
+      <c r="F103" s="3">
+        <v>45242</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -10871,8 +10735,8 @@
       <c r="K103" t="s">
         <v>382</v>
       </c>
-      <c r="M103" t="s">
-        <v>404</v>
+      <c r="M103">
+        <v>83750</v>
       </c>
       <c r="N103" t="s">
         <v>69</v>
@@ -10888,14 +10752,14 @@
       <c r="C104">
         <v>5</v>
       </c>
-      <c r="D104" s="2">
-        <v>35500</v>
-      </c>
-      <c r="E104" s="2">
-        <v>35520</v>
-      </c>
-      <c r="F104" s="2">
-        <v>35502</v>
+      <c r="D104" s="3">
+        <v>44996</v>
+      </c>
+      <c r="E104" s="3">
+        <v>45016</v>
+      </c>
+      <c r="F104" s="3">
+        <v>44998</v>
       </c>
       <c r="G104">
         <v>2</v>
@@ -10912,8 +10776,8 @@
       <c r="K104" t="s">
         <v>379</v>
       </c>
-      <c r="M104" t="s">
-        <v>431</v>
+      <c r="M104">
+        <v>26678</v>
       </c>
       <c r="N104" t="s">
         <v>67</v>
@@ -10929,14 +10793,14 @@
       <c r="C105">
         <v>7</v>
       </c>
-      <c r="D105" s="2">
-        <v>35621</v>
-      </c>
-      <c r="E105" s="2">
-        <v>35642</v>
-      </c>
-      <c r="F105" s="2">
-        <v>35635</v>
+      <c r="D105" s="3">
+        <v>45117</v>
+      </c>
+      <c r="E105" s="3">
+        <v>45138</v>
+      </c>
+      <c r="F105" s="3">
+        <v>45131</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -10953,8 +10817,8 @@
       <c r="K105" t="s">
         <v>385</v>
       </c>
-      <c r="M105" t="s">
-        <v>408</v>
+      <c r="M105">
+        <v>62351</v>
       </c>
       <c r="N105" t="s">
         <v>70</v>
@@ -10970,14 +10834,14 @@
       <c r="C106">
         <v>4</v>
       </c>
-      <c r="D106" s="2">
-        <v>36015</v>
-      </c>
-      <c r="E106" s="2">
-        <v>36019</v>
-      </c>
-      <c r="F106" s="2">
-        <v>36029</v>
+      <c r="D106" s="3">
+        <v>45512</v>
+      </c>
+      <c r="E106" s="3">
+        <v>45516</v>
+      </c>
+      <c r="F106" s="3">
+        <v>45526</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -10994,8 +10858,8 @@
       <c r="K106" t="s">
         <v>85</v>
       </c>
-      <c r="M106" t="s">
-        <v>407</v>
+      <c r="M106">
+        <v>73031</v>
       </c>
       <c r="N106" t="s">
         <v>71</v>
@@ -11011,14 +10875,14 @@
       <c r="C107">
         <v>2</v>
       </c>
-      <c r="D107" s="2">
-        <v>35720</v>
-      </c>
-      <c r="E107" s="2">
-        <v>35736</v>
-      </c>
-      <c r="F107" s="2">
-        <v>35722</v>
+      <c r="D107" s="3">
+        <v>45216</v>
+      </c>
+      <c r="E107" s="3">
+        <v>45232</v>
+      </c>
+      <c r="F107" s="3">
+        <v>45218</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -11035,11 +10899,11 @@
       <c r="K107" t="s">
         <v>399</v>
       </c>
-      <c r="M107" t="s">
-        <v>439</v>
+      <c r="M107">
+        <v>29429</v>
       </c>
       <c r="N107" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -11052,14 +10916,14 @@
       <c r="C108">
         <v>4</v>
       </c>
-      <c r="D108" s="2">
-        <v>35419</v>
-      </c>
-      <c r="E108" s="2">
-        <v>35432</v>
-      </c>
-      <c r="F108" s="2">
-        <v>35430</v>
+      <c r="D108" s="3">
+        <v>44915</v>
+      </c>
+      <c r="E108" s="3">
+        <v>44928</v>
+      </c>
+      <c r="F108" s="3">
+        <v>44926</v>
       </c>
       <c r="G108">
         <v>3</v>
@@ -11076,8 +10940,8 @@
       <c r="K108" t="s">
         <v>88</v>
       </c>
-      <c r="M108" t="s">
-        <v>435</v>
+      <c r="M108">
+        <v>88355</v>
       </c>
       <c r="N108" t="s">
         <v>74</v>
@@ -11093,14 +10957,14 @@
       <c r="C109">
         <v>6</v>
       </c>
-      <c r="D109" s="2">
-        <v>35759</v>
-      </c>
-      <c r="E109" s="2">
-        <v>35775</v>
-      </c>
-      <c r="F109" s="2">
-        <v>35769</v>
+      <c r="D109" s="3">
+        <v>45255</v>
+      </c>
+      <c r="E109" s="3">
+        <v>45271</v>
+      </c>
+      <c r="F109" s="3">
+        <v>45265</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -11117,8 +10981,8 @@
       <c r="K109" t="s">
         <v>393</v>
       </c>
-      <c r="M109" t="s">
-        <v>423</v>
+      <c r="M109">
+        <v>48889</v>
       </c>
       <c r="N109" t="s">
         <v>75</v>
@@ -11134,14 +10998,14 @@
       <c r="C110">
         <v>1</v>
       </c>
-      <c r="D110" s="2">
-        <v>35932</v>
-      </c>
-      <c r="E110" s="2">
-        <v>35944</v>
-      </c>
-      <c r="F110" s="2">
-        <v>35933</v>
+      <c r="D110" s="3">
+        <v>45429</v>
+      </c>
+      <c r="E110" s="3">
+        <v>45441</v>
+      </c>
+      <c r="F110" s="3">
+        <v>45430</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -11158,8 +11022,8 @@
       <c r="K110" t="s">
         <v>382</v>
       </c>
-      <c r="M110" t="s">
-        <v>404</v>
+      <c r="M110">
+        <v>83750</v>
       </c>
       <c r="N110" t="s">
         <v>69</v>
@@ -11175,14 +11039,14 @@
       <c r="C111">
         <v>7</v>
       </c>
-      <c r="D111" s="2">
-        <v>35391</v>
-      </c>
-      <c r="E111" s="2">
-        <v>35404</v>
-      </c>
-      <c r="F111" s="2">
-        <v>35397</v>
+      <c r="D111" s="3">
+        <v>44887</v>
+      </c>
+      <c r="E111" s="3">
+        <v>44900</v>
+      </c>
+      <c r="F111" s="3">
+        <v>44893</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -11199,8 +11063,8 @@
       <c r="K111" t="s">
         <v>389</v>
       </c>
-      <c r="M111" t="s">
-        <v>416</v>
+      <c r="M111">
+        <v>61456</v>
       </c>
       <c r="N111" t="s">
         <v>67</v>
@@ -11216,14 +11080,14 @@
       <c r="C112">
         <v>3</v>
       </c>
-      <c r="D112" s="2">
-        <v>35761</v>
-      </c>
-      <c r="E112" s="2">
-        <v>35773</v>
-      </c>
-      <c r="F112" s="2">
-        <v>35765</v>
+      <c r="D112" s="3">
+        <v>45257</v>
+      </c>
+      <c r="E112" s="3">
+        <v>45269</v>
+      </c>
+      <c r="F112" s="3">
+        <v>45261</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -11240,8 +11104,8 @@
       <c r="K112" t="s">
         <v>385</v>
       </c>
-      <c r="M112" t="s">
-        <v>408</v>
+      <c r="M112">
+        <v>62351</v>
       </c>
       <c r="N112" t="s">
         <v>70</v>
@@ -11257,14 +11121,14 @@
       <c r="C113">
         <v>9</v>
       </c>
-      <c r="D113" s="2">
-        <v>36122</v>
-      </c>
-      <c r="E113" s="2">
-        <v>36136</v>
-      </c>
-      <c r="F113" s="2">
-        <v>36127</v>
+      <c r="D113" s="3">
+        <v>45619</v>
+      </c>
+      <c r="E113" s="3">
+        <v>45633</v>
+      </c>
+      <c r="F113" s="3">
+        <v>45624</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -11281,8 +11145,8 @@
       <c r="K113" t="s">
         <v>389</v>
       </c>
-      <c r="M113" t="s">
-        <v>416</v>
+      <c r="M113">
+        <v>61456</v>
       </c>
       <c r="N113" t="s">
         <v>67</v>
@@ -11298,14 +11162,14 @@
       <c r="C114">
         <v>4</v>
       </c>
-      <c r="D114" s="2">
-        <v>35172</v>
-      </c>
-      <c r="E114" s="2">
-        <v>35186</v>
-      </c>
-      <c r="F114" s="2">
-        <v>35183</v>
+      <c r="D114" s="3">
+        <v>44668</v>
+      </c>
+      <c r="E114" s="3">
+        <v>44682</v>
+      </c>
+      <c r="F114" s="3">
+        <v>44679</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -11322,11 +11186,11 @@
       <c r="K114" t="s">
         <v>386</v>
       </c>
-      <c r="M114" t="s">
-        <v>433</v>
+      <c r="M114">
+        <v>33381</v>
       </c>
       <c r="N114" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -11339,14 +11203,14 @@
       <c r="C115">
         <v>1</v>
       </c>
-      <c r="D115" s="2">
-        <v>35370</v>
-      </c>
-      <c r="E115" s="2">
-        <v>35373</v>
-      </c>
-      <c r="F115" s="2">
-        <v>35372</v>
+      <c r="D115" s="3">
+        <v>44866</v>
+      </c>
+      <c r="E115" s="3">
+        <v>44869</v>
+      </c>
+      <c r="F115" s="3">
+        <v>44868</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -11363,8 +11227,8 @@
       <c r="K115" t="s">
         <v>384</v>
       </c>
-      <c r="M115" t="s">
-        <v>429</v>
+      <c r="M115">
+        <v>42964</v>
       </c>
       <c r="N115" t="s">
         <v>73</v>
@@ -11380,14 +11244,14 @@
       <c r="C116">
         <v>3</v>
       </c>
-      <c r="D116" s="2">
-        <v>35259</v>
-      </c>
-      <c r="E116" s="2">
-        <v>35269</v>
-      </c>
-      <c r="F116" s="2">
-        <v>35268</v>
+      <c r="D116" s="3">
+        <v>44755</v>
+      </c>
+      <c r="E116" s="3">
+        <v>44765</v>
+      </c>
+      <c r="F116" s="3">
+        <v>44764</v>
       </c>
       <c r="G116">
         <v>3</v>
@@ -11404,8 +11268,8 @@
       <c r="K116" t="s">
         <v>384</v>
       </c>
-      <c r="M116" t="s">
-        <v>429</v>
+      <c r="M116">
+        <v>42964</v>
       </c>
       <c r="N116" t="s">
         <v>73</v>
@@ -11421,14 +11285,14 @@
       <c r="C117">
         <v>9</v>
       </c>
-      <c r="D117" s="2">
-        <v>35331</v>
-      </c>
-      <c r="E117" s="2">
-        <v>35339</v>
-      </c>
-      <c r="F117" s="2">
-        <v>35342</v>
+      <c r="D117" s="3">
+        <v>44827</v>
+      </c>
+      <c r="E117" s="3">
+        <v>44835</v>
+      </c>
+      <c r="F117" s="3">
+        <v>44838</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -11445,8 +11309,8 @@
       <c r="K117" t="s">
         <v>86</v>
       </c>
-      <c r="M117" t="s">
-        <v>438</v>
+      <c r="M117">
+        <v>67430</v>
       </c>
       <c r="N117" t="s">
         <v>72</v>
@@ -11462,14 +11326,14 @@
       <c r="C118">
         <v>4</v>
       </c>
-      <c r="D118" s="2">
-        <v>35469</v>
-      </c>
-      <c r="E118" s="2">
-        <v>35487</v>
-      </c>
-      <c r="F118" s="2">
-        <v>35472</v>
+      <c r="D118" s="3">
+        <v>44965</v>
+      </c>
+      <c r="E118" s="3">
+        <v>44983</v>
+      </c>
+      <c r="F118" s="3">
+        <v>44968</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -11486,8 +11350,8 @@
       <c r="K118" t="s">
         <v>398</v>
       </c>
-      <c r="M118" t="s">
-        <v>437</v>
+      <c r="M118">
+        <v>46242</v>
       </c>
       <c r="N118" t="s">
         <v>71</v>
@@ -11503,14 +11367,14 @@
       <c r="C119">
         <v>6</v>
       </c>
-      <c r="D119" s="2">
-        <v>35558</v>
-      </c>
-      <c r="E119" s="2">
-        <v>35563</v>
-      </c>
-      <c r="F119" s="2">
-        <v>35569</v>
+      <c r="D119" s="3">
+        <v>45054</v>
+      </c>
+      <c r="E119" s="3">
+        <v>45059</v>
+      </c>
+      <c r="F119" s="3">
+        <v>45065</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -11527,8 +11391,8 @@
       <c r="K119" t="s">
         <v>391</v>
       </c>
-      <c r="M119" t="s">
-        <v>430</v>
+      <c r="M119">
+        <v>34315</v>
       </c>
       <c r="N119" t="s">
         <v>75</v>
@@ -11544,14 +11408,14 @@
       <c r="C120">
         <v>6</v>
       </c>
-      <c r="D120" s="2">
-        <v>35753</v>
-      </c>
-      <c r="E120" s="2">
-        <v>35757</v>
-      </c>
-      <c r="F120" s="2">
-        <v>35754</v>
+      <c r="D120" s="3">
+        <v>45249</v>
+      </c>
+      <c r="E120" s="3">
+        <v>45253</v>
+      </c>
+      <c r="F120" s="3">
+        <v>45250</v>
       </c>
       <c r="G120">
         <v>3</v>
@@ -11568,11 +11432,11 @@
       <c r="K120" t="s">
         <v>395</v>
       </c>
-      <c r="M120" t="s">
-        <v>426</v>
+      <c r="M120">
+        <v>62404</v>
       </c>
       <c r="N120" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -11585,14 +11449,14 @@
       <c r="C121">
         <v>5</v>
       </c>
-      <c r="D121" s="2">
-        <v>36052</v>
-      </c>
-      <c r="E121" s="2">
-        <v>36063</v>
-      </c>
-      <c r="F121" s="2">
-        <v>36053</v>
+      <c r="D121" s="3">
+        <v>45549</v>
+      </c>
+      <c r="E121" s="3">
+        <v>45560</v>
+      </c>
+      <c r="F121" s="3">
+        <v>45550</v>
       </c>
       <c r="G121">
         <v>2</v>
@@ -11609,8 +11473,8 @@
       <c r="K121" t="s">
         <v>394</v>
       </c>
-      <c r="M121" t="s">
-        <v>432</v>
+      <c r="M121">
+        <v>43357</v>
       </c>
       <c r="N121" t="s">
         <v>78</v>
@@ -11626,14 +11490,14 @@
       <c r="C122">
         <v>6</v>
       </c>
-      <c r="D122" s="2">
-        <v>35847</v>
-      </c>
-      <c r="E122" s="2">
-        <v>35850</v>
-      </c>
-      <c r="F122" s="2">
-        <v>35853</v>
+      <c r="D122" s="3">
+        <v>45343</v>
+      </c>
+      <c r="E122" s="3">
+        <v>45346</v>
+      </c>
+      <c r="F122" s="3">
+        <v>45349</v>
       </c>
       <c r="G122">
         <v>2</v>
@@ -11650,11 +11514,11 @@
       <c r="K122" t="s">
         <v>396</v>
       </c>
-      <c r="M122" t="s">
-        <v>434</v>
+      <c r="M122">
+        <v>31100</v>
       </c>
       <c r="N122" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -11667,14 +11531,14 @@
       <c r="C123">
         <v>9</v>
       </c>
-      <c r="D123" s="2">
-        <v>35817</v>
-      </c>
-      <c r="E123" s="2">
-        <v>35824</v>
-      </c>
-      <c r="F123" s="2">
-        <v>35818</v>
+      <c r="D123" s="3">
+        <v>45313</v>
+      </c>
+      <c r="E123" s="3">
+        <v>45320</v>
+      </c>
+      <c r="F123" s="3">
+        <v>45314</v>
       </c>
       <c r="G123">
         <v>2</v>
@@ -11691,8 +11555,8 @@
       <c r="K123" t="s">
         <v>389</v>
       </c>
-      <c r="M123" t="s">
-        <v>416</v>
+      <c r="M123">
+        <v>61456</v>
       </c>
       <c r="N123" t="s">
         <v>67</v>
@@ -11708,14 +11572,14 @@
       <c r="C124">
         <v>8</v>
       </c>
-      <c r="D124" s="2">
-        <v>35083</v>
-      </c>
-      <c r="E124" s="2">
-        <v>35101</v>
-      </c>
-      <c r="F124" s="2">
-        <v>35095</v>
+      <c r="D124" s="3">
+        <v>44580</v>
+      </c>
+      <c r="E124" s="3">
+        <v>44598</v>
+      </c>
+      <c r="F124" s="3">
+        <v>44592</v>
       </c>
       <c r="G124">
         <v>3</v>
@@ -11732,11 +11596,11 @@
       <c r="K124" t="s">
         <v>386</v>
       </c>
-      <c r="M124" t="s">
-        <v>411</v>
+      <c r="M124">
+        <v>54715</v>
       </c>
       <c r="N124" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -11749,14 +11613,14 @@
       <c r="C125">
         <v>3</v>
       </c>
-      <c r="D125" s="2">
-        <v>35926</v>
-      </c>
-      <c r="E125" s="2">
-        <v>35941</v>
-      </c>
-      <c r="F125" s="2">
-        <v>35936</v>
+      <c r="D125" s="3">
+        <v>45423</v>
+      </c>
+      <c r="E125" s="3">
+        <v>45438</v>
+      </c>
+      <c r="F125" s="3">
+        <v>45433</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11773,8 +11637,8 @@
       <c r="K125" t="s">
         <v>394</v>
       </c>
-      <c r="M125" t="s">
-        <v>432</v>
+      <c r="M125">
+        <v>43357</v>
       </c>
       <c r="N125" t="s">
         <v>78</v>
@@ -11790,14 +11654,14 @@
       <c r="C126">
         <v>8</v>
       </c>
-      <c r="D126" s="2">
-        <v>36157</v>
-      </c>
-      <c r="E126" s="2">
-        <v>36171</v>
-      </c>
-      <c r="F126" s="2">
-        <v>36170</v>
+      <c r="D126" s="3">
+        <v>45654</v>
+      </c>
+      <c r="E126" s="3">
+        <v>45668</v>
+      </c>
+      <c r="F126" s="3">
+        <v>45667</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11814,11 +11678,11 @@
       <c r="K126" t="s">
         <v>399</v>
       </c>
-      <c r="M126" t="s">
-        <v>439</v>
+      <c r="M126">
+        <v>29429</v>
       </c>
       <c r="N126" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -11831,14 +11695,14 @@
       <c r="C127">
         <v>5</v>
       </c>
-      <c r="D127" s="2">
-        <v>36145</v>
-      </c>
-      <c r="E127" s="2">
-        <v>36158</v>
-      </c>
-      <c r="F127" s="2">
-        <v>36154</v>
+      <c r="D127" s="3">
+        <v>45642</v>
+      </c>
+      <c r="E127" s="3">
+        <v>45655</v>
+      </c>
+      <c r="F127" s="3">
+        <v>45651</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -11855,11 +11719,11 @@
       <c r="K127" t="s">
         <v>399</v>
       </c>
-      <c r="M127" t="s">
-        <v>439</v>
+      <c r="M127">
+        <v>29429</v>
       </c>
       <c r="N127" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -11872,14 +11736,14 @@
       <c r="C128">
         <v>4</v>
       </c>
-      <c r="D128" s="2">
-        <v>35390</v>
-      </c>
-      <c r="E128" s="2">
-        <v>35393</v>
-      </c>
-      <c r="F128" s="2">
-        <v>35402</v>
+      <c r="D128" s="3">
+        <v>44886</v>
+      </c>
+      <c r="E128" s="3">
+        <v>44889</v>
+      </c>
+      <c r="F128" s="3">
+        <v>44898</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11896,8 +11760,8 @@
       <c r="K128" t="s">
         <v>394</v>
       </c>
-      <c r="M128" t="s">
-        <v>424</v>
+      <c r="M128">
+        <v>31138</v>
       </c>
       <c r="N128" t="s">
         <v>78</v>
@@ -11913,14 +11777,14 @@
       <c r="C129">
         <v>2</v>
       </c>
-      <c r="D129" s="2">
-        <v>36041</v>
-      </c>
-      <c r="E129" s="2">
-        <v>36052</v>
-      </c>
-      <c r="F129" s="2">
-        <v>36055</v>
+      <c r="D129" s="3">
+        <v>45538</v>
+      </c>
+      <c r="E129" s="3">
+        <v>45549</v>
+      </c>
+      <c r="F129" s="3">
+        <v>45552</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11937,8 +11801,8 @@
       <c r="K129" t="s">
         <v>85</v>
       </c>
-      <c r="M129" t="s">
-        <v>420</v>
+      <c r="M129">
+        <v>71077</v>
       </c>
       <c r="N129" t="s">
         <v>71</v>
@@ -11954,14 +11818,14 @@
       <c r="C130">
         <v>2</v>
       </c>
-      <c r="D130" s="2">
-        <v>35601</v>
-      </c>
-      <c r="E130" s="2">
-        <v>35609</v>
-      </c>
-      <c r="F130" s="2">
-        <v>35614</v>
+      <c r="D130" s="3">
+        <v>45097</v>
+      </c>
+      <c r="E130" s="3">
+        <v>45105</v>
+      </c>
+      <c r="F130" s="3">
+        <v>45110</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11978,11 +11842,11 @@
       <c r="K130" t="s">
         <v>397</v>
       </c>
-      <c r="M130" t="s">
-        <v>436</v>
+      <c r="M130">
+        <v>44015</v>
       </c>
       <c r="N130" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -11995,14 +11859,14 @@
       <c r="C131">
         <v>1</v>
       </c>
-      <c r="D131" s="2">
-        <v>36038</v>
-      </c>
-      <c r="E131" s="2">
-        <v>36049</v>
-      </c>
-      <c r="F131" s="2">
-        <v>36040</v>
+      <c r="D131" s="3">
+        <v>45535</v>
+      </c>
+      <c r="E131" s="3">
+        <v>45546</v>
+      </c>
+      <c r="F131" s="3">
+        <v>45537</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -12019,11 +11883,11 @@
       <c r="K131" t="s">
         <v>392</v>
       </c>
-      <c r="M131" t="s">
-        <v>422</v>
+      <c r="M131">
+        <v>92925</v>
       </c>
       <c r="N131" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -12036,14 +11900,14 @@
       <c r="C132">
         <v>3</v>
       </c>
-      <c r="D132" s="2">
-        <v>35902</v>
-      </c>
-      <c r="E132" s="2">
-        <v>35906</v>
-      </c>
-      <c r="F132" s="2">
-        <v>35916</v>
+      <c r="D132" s="3">
+        <v>45399</v>
+      </c>
+      <c r="E132" s="3">
+        <v>45403</v>
+      </c>
+      <c r="F132" s="3">
+        <v>45413</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -12060,11 +11924,11 @@
       <c r="K132" t="s">
         <v>392</v>
       </c>
-      <c r="M132" t="s">
-        <v>422</v>
+      <c r="M132">
+        <v>92925</v>
       </c>
       <c r="N132" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -12077,14 +11941,14 @@
       <c r="C133">
         <v>7</v>
       </c>
-      <c r="D133" s="2">
-        <v>35241</v>
-      </c>
-      <c r="E133" s="2">
-        <v>35260</v>
-      </c>
-      <c r="F133" s="2">
-        <v>35251</v>
+      <c r="D133" s="3">
+        <v>44737</v>
+      </c>
+      <c r="E133" s="3">
+        <v>44756</v>
+      </c>
+      <c r="F133" s="3">
+        <v>44747</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -12101,11 +11965,11 @@
       <c r="K133" t="s">
         <v>399</v>
       </c>
-      <c r="M133" t="s">
-        <v>439</v>
+      <c r="M133">
+        <v>29429</v>
       </c>
       <c r="N133" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -12118,14 +11982,14 @@
       <c r="C134">
         <v>10</v>
       </c>
-      <c r="D134" s="2">
-        <v>35481</v>
-      </c>
-      <c r="E134" s="2">
-        <v>35492</v>
-      </c>
-      <c r="F134" s="2">
-        <v>35489</v>
+      <c r="D134" s="3">
+        <v>44977</v>
+      </c>
+      <c r="E134" s="3">
+        <v>44988</v>
+      </c>
+      <c r="F134" s="3">
+        <v>44985</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -12142,8 +12006,8 @@
       <c r="K134" t="s">
         <v>385</v>
       </c>
-      <c r="M134" t="s">
-        <v>408</v>
+      <c r="M134">
+        <v>62351</v>
       </c>
       <c r="N134" t="s">
         <v>70</v>
@@ -12159,14 +12023,14 @@
       <c r="C135">
         <v>1</v>
       </c>
-      <c r="D135" s="2">
-        <v>36033</v>
-      </c>
-      <c r="E135" s="2">
-        <v>36046</v>
-      </c>
-      <c r="F135" s="2">
-        <v>36041</v>
+      <c r="D135" s="3">
+        <v>45530</v>
+      </c>
+      <c r="E135" s="3">
+        <v>45543</v>
+      </c>
+      <c r="F135" s="3">
+        <v>45538</v>
       </c>
       <c r="G135">
         <v>3</v>
@@ -12183,8 +12047,8 @@
       <c r="K135" t="s">
         <v>379</v>
       </c>
-      <c r="M135" t="s">
-        <v>401</v>
+      <c r="M135">
+        <v>63045</v>
       </c>
       <c r="N135" t="s">
         <v>67</v>
@@ -12200,14 +12064,14 @@
       <c r="C136">
         <v>10</v>
       </c>
-      <c r="D136" s="2">
-        <v>35505</v>
-      </c>
-      <c r="E136" s="2">
-        <v>35518</v>
-      </c>
-      <c r="F136" s="2">
-        <v>35509</v>
+      <c r="D136" s="3">
+        <v>45001</v>
+      </c>
+      <c r="E136" s="3">
+        <v>45014</v>
+      </c>
+      <c r="F136" s="3">
+        <v>45005</v>
       </c>
       <c r="G136">
         <v>2</v>
@@ -12224,11 +12088,11 @@
       <c r="K136" t="s">
         <v>392</v>
       </c>
-      <c r="M136" t="s">
-        <v>428</v>
+      <c r="M136">
+        <v>75384</v>
       </c>
       <c r="N136" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="137" spans="1:14">
@@ -12241,14 +12105,14 @@
       <c r="C137">
         <v>10</v>
       </c>
-      <c r="D137" s="2">
-        <v>35954</v>
-      </c>
-      <c r="E137" s="2">
-        <v>35970</v>
-      </c>
-      <c r="F137" s="2">
-        <v>35966</v>
+      <c r="D137" s="3">
+        <v>45451</v>
+      </c>
+      <c r="E137" s="3">
+        <v>45467</v>
+      </c>
+      <c r="F137" s="3">
+        <v>45463</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12265,8 +12129,8 @@
       <c r="K137" t="s">
         <v>94</v>
       </c>
-      <c r="M137" t="s">
-        <v>418</v>
+      <c r="M137">
+        <v>80043</v>
       </c>
       <c r="N137" t="s">
         <v>78</v>
@@ -12282,14 +12146,14 @@
       <c r="C138">
         <v>2</v>
       </c>
-      <c r="D138" s="2">
-        <v>35827</v>
-      </c>
-      <c r="E138" s="2">
-        <v>35846</v>
-      </c>
-      <c r="F138" s="2">
-        <v>35832</v>
+      <c r="D138" s="3">
+        <v>45323</v>
+      </c>
+      <c r="E138" s="3">
+        <v>45342</v>
+      </c>
+      <c r="F138" s="3">
+        <v>45328</v>
       </c>
       <c r="G138">
         <v>2</v>
@@ -12306,11 +12170,11 @@
       <c r="K138" t="s">
         <v>386</v>
       </c>
-      <c r="M138" t="s">
-        <v>411</v>
+      <c r="M138">
+        <v>54715</v>
       </c>
       <c r="N138" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="139" spans="1:14">
@@ -12323,14 +12187,14 @@
       <c r="C139">
         <v>4</v>
       </c>
-      <c r="D139" s="2">
-        <v>35716</v>
-      </c>
-      <c r="E139" s="2">
-        <v>35721</v>
-      </c>
-      <c r="F139" s="2">
-        <v>35719</v>
+      <c r="D139" s="3">
+        <v>45212</v>
+      </c>
+      <c r="E139" s="3">
+        <v>45217</v>
+      </c>
+      <c r="F139" s="3">
+        <v>45215</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -12347,8 +12211,8 @@
       <c r="K139" t="s">
         <v>94</v>
       </c>
-      <c r="M139" t="s">
-        <v>418</v>
+      <c r="M139">
+        <v>80043</v>
       </c>
       <c r="N139" t="s">
         <v>78</v>
@@ -12364,14 +12228,14 @@
       <c r="C140">
         <v>3</v>
       </c>
-      <c r="D140" s="2">
-        <v>35180</v>
-      </c>
-      <c r="E140" s="2">
-        <v>35201</v>
-      </c>
-      <c r="F140" s="2">
-        <v>35187</v>
+      <c r="D140" s="3">
+        <v>44676</v>
+      </c>
+      <c r="E140" s="3">
+        <v>44697</v>
+      </c>
+      <c r="F140" s="3">
+        <v>44683</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12388,8 +12252,8 @@
       <c r="K140" t="s">
         <v>391</v>
       </c>
-      <c r="M140" t="s">
-        <v>419</v>
+      <c r="M140">
+        <v>35806</v>
       </c>
       <c r="N140" t="s">
         <v>75</v>
@@ -12405,14 +12269,14 @@
       <c r="C141">
         <v>8</v>
       </c>
-      <c r="D141" s="2">
-        <v>35833</v>
-      </c>
-      <c r="E141" s="2">
-        <v>35838</v>
-      </c>
-      <c r="F141" s="2">
-        <v>35835</v>
+      <c r="D141" s="3">
+        <v>45329</v>
+      </c>
+      <c r="E141" s="3">
+        <v>45334</v>
+      </c>
+      <c r="F141" s="3">
+        <v>45331</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12429,8 +12293,8 @@
       <c r="K141" t="s">
         <v>388</v>
       </c>
-      <c r="M141" t="s">
-        <v>415</v>
+      <c r="M141">
+        <v>20800</v>
       </c>
       <c r="N141" t="s">
         <v>72</v>
@@ -12446,14 +12310,14 @@
       <c r="C142">
         <v>6</v>
       </c>
-      <c r="D142" s="2">
-        <v>35890</v>
-      </c>
-      <c r="E142" s="2">
-        <v>35895</v>
-      </c>
-      <c r="F142" s="2">
-        <v>35899</v>
+      <c r="D142" s="3">
+        <v>45387</v>
+      </c>
+      <c r="E142" s="3">
+        <v>45392</v>
+      </c>
+      <c r="F142" s="3">
+        <v>45396</v>
       </c>
       <c r="G142">
         <v>1</v>
@@ -12470,8 +12334,8 @@
       <c r="K142" t="s">
         <v>94</v>
       </c>
-      <c r="M142" t="s">
-        <v>418</v>
+      <c r="M142">
+        <v>80043</v>
       </c>
       <c r="N142" t="s">
         <v>78</v>
@@ -12487,14 +12351,14 @@
       <c r="C143">
         <v>8</v>
       </c>
-      <c r="D143" s="2">
-        <v>36076</v>
-      </c>
-      <c r="E143" s="2">
-        <v>36086</v>
-      </c>
-      <c r="F143" s="2">
-        <v>36083</v>
+      <c r="D143" s="3">
+        <v>45573</v>
+      </c>
+      <c r="E143" s="3">
+        <v>45583</v>
+      </c>
+      <c r="F143" s="3">
+        <v>45580</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -12511,8 +12375,8 @@
       <c r="K143" t="s">
         <v>384</v>
       </c>
-      <c r="M143" t="s">
-        <v>429</v>
+      <c r="M143">
+        <v>42964</v>
       </c>
       <c r="N143" t="s">
         <v>73</v>
@@ -12528,14 +12392,14 @@
       <c r="C144">
         <v>2</v>
       </c>
-      <c r="D144" s="2">
-        <v>35870</v>
-      </c>
-      <c r="E144" s="2">
-        <v>35888</v>
-      </c>
-      <c r="F144" s="2">
-        <v>35875</v>
+      <c r="D144" s="3">
+        <v>45367</v>
+      </c>
+      <c r="E144" s="3">
+        <v>45385</v>
+      </c>
+      <c r="F144" s="3">
+        <v>45372</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12552,8 +12416,8 @@
       <c r="K144" t="s">
         <v>391</v>
       </c>
-      <c r="M144" t="s">
-        <v>430</v>
+      <c r="M144">
+        <v>34315</v>
       </c>
       <c r="N144" t="s">
         <v>75</v>
@@ -12569,14 +12433,14 @@
       <c r="C145">
         <v>9</v>
       </c>
-      <c r="D145" s="2">
-        <v>36024</v>
-      </c>
-      <c r="E145" s="2">
-        <v>36043</v>
-      </c>
-      <c r="F145" s="2">
-        <v>36032</v>
+      <c r="D145" s="3">
+        <v>45521</v>
+      </c>
+      <c r="E145" s="3">
+        <v>45540</v>
+      </c>
+      <c r="F145" s="3">
+        <v>45529</v>
       </c>
       <c r="G145">
         <v>2</v>
@@ -12593,11 +12457,11 @@
       <c r="K145" t="s">
         <v>392</v>
       </c>
-      <c r="M145" t="s">
-        <v>428</v>
+      <c r="M145">
+        <v>75384</v>
       </c>
       <c r="N145" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="146" spans="1:14">
@@ -12610,14 +12474,14 @@
       <c r="C146">
         <v>9</v>
       </c>
-      <c r="D146" s="2">
-        <v>36117</v>
-      </c>
-      <c r="E146" s="2">
-        <v>36129</v>
-      </c>
-      <c r="F146" s="2">
-        <v>36125</v>
+      <c r="D146" s="3">
+        <v>45614</v>
+      </c>
+      <c r="E146" s="3">
+        <v>45626</v>
+      </c>
+      <c r="F146" s="3">
+        <v>45622</v>
       </c>
       <c r="G146">
         <v>3</v>
@@ -12634,8 +12498,8 @@
       <c r="K146" t="s">
         <v>384</v>
       </c>
-      <c r="M146" t="s">
-        <v>429</v>
+      <c r="M146">
+        <v>42964</v>
       </c>
       <c r="N146" t="s">
         <v>73</v>
@@ -12651,14 +12515,14 @@
       <c r="C147">
         <v>2</v>
       </c>
-      <c r="D147" s="2">
-        <v>35599</v>
-      </c>
-      <c r="E147" s="2">
-        <v>35603</v>
-      </c>
-      <c r="F147" s="2">
-        <v>35600</v>
+      <c r="D147" s="3">
+        <v>45095</v>
+      </c>
+      <c r="E147" s="3">
+        <v>45099</v>
+      </c>
+      <c r="F147" s="3">
+        <v>45096</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -12675,8 +12539,8 @@
       <c r="K147" t="s">
         <v>394</v>
       </c>
-      <c r="M147" t="s">
-        <v>424</v>
+      <c r="M147">
+        <v>31138</v>
       </c>
       <c r="N147" t="s">
         <v>78</v>
@@ -12692,14 +12556,14 @@
       <c r="C148">
         <v>5</v>
       </c>
-      <c r="D148" s="2">
-        <v>35565</v>
-      </c>
-      <c r="E148" s="2">
-        <v>35574</v>
-      </c>
-      <c r="F148" s="2">
-        <v>35574</v>
+      <c r="D148" s="3">
+        <v>45061</v>
+      </c>
+      <c r="E148" s="3">
+        <v>45070</v>
+      </c>
+      <c r="F148" s="3">
+        <v>45070</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -12716,8 +12580,8 @@
       <c r="K148" t="s">
         <v>85</v>
       </c>
-      <c r="M148" t="s">
-        <v>407</v>
+      <c r="M148">
+        <v>73031</v>
       </c>
       <c r="N148" t="s">
         <v>71</v>
@@ -12733,14 +12597,14 @@
       <c r="C149">
         <v>1</v>
       </c>
-      <c r="D149" s="2">
-        <v>35481</v>
-      </c>
-      <c r="E149" s="2">
-        <v>35498</v>
-      </c>
-      <c r="F149" s="2">
-        <v>35492</v>
+      <c r="D149" s="3">
+        <v>44977</v>
+      </c>
+      <c r="E149" s="3">
+        <v>44994</v>
+      </c>
+      <c r="F149" s="3">
+        <v>44988</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -12757,8 +12621,8 @@
       <c r="K149" t="s">
         <v>394</v>
       </c>
-      <c r="M149" t="s">
-        <v>432</v>
+      <c r="M149">
+        <v>43357</v>
       </c>
       <c r="N149" t="s">
         <v>78</v>
@@ -12774,14 +12638,14 @@
       <c r="C150">
         <v>2</v>
       </c>
-      <c r="D150" s="2">
-        <v>35822</v>
-      </c>
-      <c r="E150" s="2">
-        <v>35839</v>
-      </c>
-      <c r="F150" s="2">
-        <v>35825</v>
+      <c r="D150" s="3">
+        <v>45318</v>
+      </c>
+      <c r="E150" s="3">
+        <v>45335</v>
+      </c>
+      <c r="F150" s="3">
+        <v>45321</v>
       </c>
       <c r="G150">
         <v>1</v>
@@ -12798,8 +12662,8 @@
       <c r="K150" t="s">
         <v>85</v>
       </c>
-      <c r="M150" t="s">
-        <v>407</v>
+      <c r="M150">
+        <v>73031</v>
       </c>
       <c r="N150" t="s">
         <v>71</v>
@@ -12815,14 +12679,14 @@
       <c r="C151">
         <v>6</v>
       </c>
-      <c r="D151" s="2">
-        <v>35414</v>
-      </c>
-      <c r="E151" s="2">
-        <v>35417</v>
-      </c>
-      <c r="F151" s="2">
-        <v>35419</v>
+      <c r="D151" s="3">
+        <v>44910</v>
+      </c>
+      <c r="E151" s="3">
+        <v>44913</v>
+      </c>
+      <c r="F151" s="3">
+        <v>44915</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -12839,8 +12703,8 @@
       <c r="K151" t="s">
         <v>380</v>
       </c>
-      <c r="M151" t="s">
-        <v>402</v>
+      <c r="M151">
+        <v>65155</v>
       </c>
       <c r="N151" t="s">
         <v>68</v>
@@ -12856,14 +12720,14 @@
       <c r="C152">
         <v>5</v>
       </c>
-      <c r="D152" s="2">
-        <v>36083</v>
-      </c>
-      <c r="E152" s="2">
-        <v>36088</v>
-      </c>
-      <c r="F152" s="2">
-        <v>36085</v>
+      <c r="D152" s="3">
+        <v>45580</v>
+      </c>
+      <c r="E152" s="3">
+        <v>45585</v>
+      </c>
+      <c r="F152" s="3">
+        <v>45582</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -12880,8 +12744,8 @@
       <c r="K152" t="s">
         <v>382</v>
       </c>
-      <c r="M152" t="s">
-        <v>404</v>
+      <c r="M152">
+        <v>83750</v>
       </c>
       <c r="N152" t="s">
         <v>69</v>
@@ -12897,14 +12761,14 @@
       <c r="C153">
         <v>7</v>
       </c>
-      <c r="D153" s="2">
-        <v>36013</v>
-      </c>
-      <c r="E153" s="2">
-        <v>36029</v>
-      </c>
-      <c r="F153" s="2">
-        <v>36017</v>
+      <c r="D153" s="3">
+        <v>45510</v>
+      </c>
+      <c r="E153" s="3">
+        <v>45526</v>
+      </c>
+      <c r="F153" s="3">
+        <v>45514</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -12921,8 +12785,8 @@
       <c r="K153" t="s">
         <v>388</v>
       </c>
-      <c r="M153" t="s">
-        <v>421</v>
+      <c r="M153">
+        <v>45744</v>
       </c>
       <c r="N153" t="s">
         <v>72</v>
@@ -12938,14 +12802,14 @@
       <c r="C154">
         <v>10</v>
       </c>
-      <c r="D154" s="2">
-        <v>35530</v>
-      </c>
-      <c r="E154" s="2">
-        <v>35542</v>
-      </c>
-      <c r="F154" s="2">
-        <v>35532</v>
+      <c r="D154" s="3">
+        <v>45026</v>
+      </c>
+      <c r="E154" s="3">
+        <v>45038</v>
+      </c>
+      <c r="F154" s="3">
+        <v>45028</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -12962,8 +12826,8 @@
       <c r="K154" t="s">
         <v>388</v>
       </c>
-      <c r="M154" t="s">
-        <v>415</v>
+      <c r="M154">
+        <v>20800</v>
       </c>
       <c r="N154" t="s">
         <v>72</v>
@@ -12979,14 +12843,14 @@
       <c r="C155">
         <v>7</v>
       </c>
-      <c r="D155" s="2">
-        <v>35833</v>
-      </c>
-      <c r="E155" s="2">
-        <v>35849</v>
-      </c>
-      <c r="F155" s="2">
-        <v>35847</v>
+      <c r="D155" s="3">
+        <v>45329</v>
+      </c>
+      <c r="E155" s="3">
+        <v>45345</v>
+      </c>
+      <c r="F155" s="3">
+        <v>45343</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13003,8 +12867,8 @@
       <c r="K155" t="s">
         <v>380</v>
       </c>
-      <c r="M155" t="s">
-        <v>402</v>
+      <c r="M155">
+        <v>65155</v>
       </c>
       <c r="N155" t="s">
         <v>68</v>
@@ -13020,14 +12884,14 @@
       <c r="C156">
         <v>7</v>
       </c>
-      <c r="D156" s="2">
-        <v>35760</v>
-      </c>
-      <c r="E156" s="2">
-        <v>35781</v>
-      </c>
-      <c r="F156" s="2">
-        <v>35764</v>
+      <c r="D156" s="3">
+        <v>45256</v>
+      </c>
+      <c r="E156" s="3">
+        <v>45277</v>
+      </c>
+      <c r="F156" s="3">
+        <v>45260</v>
       </c>
       <c r="G156">
         <v>2</v>
@@ -13044,8 +12908,8 @@
       <c r="K156" t="s">
         <v>393</v>
       </c>
-      <c r="M156" t="s">
-        <v>423</v>
+      <c r="M156">
+        <v>48889</v>
       </c>
       <c r="N156" t="s">
         <v>75</v>
@@ -13061,14 +12925,14 @@
       <c r="C157">
         <v>7</v>
       </c>
-      <c r="D157" s="2">
-        <v>35708</v>
-      </c>
-      <c r="E157" s="2">
-        <v>35721</v>
-      </c>
-      <c r="F157" s="2">
-        <v>35709</v>
+      <c r="D157" s="3">
+        <v>45204</v>
+      </c>
+      <c r="E157" s="3">
+        <v>45217</v>
+      </c>
+      <c r="F157" s="3">
+        <v>45205</v>
       </c>
       <c r="G157">
         <v>2</v>
@@ -13085,8 +12949,8 @@
       <c r="K157" t="s">
         <v>389</v>
       </c>
-      <c r="M157" t="s">
-        <v>416</v>
+      <c r="M157">
+        <v>61456</v>
       </c>
       <c r="N157" t="s">
         <v>67</v>
@@ -13102,14 +12966,14 @@
       <c r="C158">
         <v>5</v>
       </c>
-      <c r="D158" s="2">
-        <v>35594</v>
-      </c>
-      <c r="E158" s="2">
-        <v>35609</v>
-      </c>
-      <c r="F158" s="2">
-        <v>35607</v>
+      <c r="D158" s="3">
+        <v>45090</v>
+      </c>
+      <c r="E158" s="3">
+        <v>45105</v>
+      </c>
+      <c r="F158" s="3">
+        <v>45103</v>
       </c>
       <c r="G158">
         <v>3</v>
@@ -13126,8 +12990,8 @@
       <c r="K158" t="s">
         <v>398</v>
       </c>
-      <c r="M158" t="s">
-        <v>437</v>
+      <c r="M158">
+        <v>46242</v>
       </c>
       <c r="N158" t="s">
         <v>71</v>
@@ -13143,14 +13007,14 @@
       <c r="C159">
         <v>2</v>
       </c>
-      <c r="D159" s="2">
-        <v>35859</v>
-      </c>
-      <c r="E159" s="2">
-        <v>35863</v>
-      </c>
-      <c r="F159" s="2">
-        <v>35862</v>
+      <c r="D159" s="3">
+        <v>45356</v>
+      </c>
+      <c r="E159" s="3">
+        <v>45360</v>
+      </c>
+      <c r="F159" s="3">
+        <v>45359</v>
       </c>
       <c r="G159">
         <v>3</v>
@@ -13167,8 +13031,8 @@
       <c r="K159" t="s">
         <v>388</v>
       </c>
-      <c r="M159" t="s">
-        <v>415</v>
+      <c r="M159">
+        <v>20800</v>
       </c>
       <c r="N159" t="s">
         <v>72</v>
@@ -13184,14 +13048,14 @@
       <c r="C160">
         <v>6</v>
       </c>
-      <c r="D160" s="2">
-        <v>35531</v>
-      </c>
-      <c r="E160" s="2">
-        <v>35549</v>
-      </c>
-      <c r="F160" s="2">
-        <v>35537</v>
+      <c r="D160" s="3">
+        <v>45027</v>
+      </c>
+      <c r="E160" s="3">
+        <v>45045</v>
+      </c>
+      <c r="F160" s="3">
+        <v>45033</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -13208,8 +13072,8 @@
       <c r="K160" t="s">
         <v>391</v>
       </c>
-      <c r="M160" t="s">
-        <v>430</v>
+      <c r="M160">
+        <v>34315</v>
       </c>
       <c r="N160" t="s">
         <v>75</v>
@@ -13225,14 +13089,14 @@
       <c r="C161">
         <v>8</v>
       </c>
-      <c r="D161" s="2">
-        <v>35755</v>
-      </c>
-      <c r="E161" s="2">
-        <v>35773</v>
-      </c>
-      <c r="F161" s="2">
-        <v>35768</v>
+      <c r="D161" s="3">
+        <v>45251</v>
+      </c>
+      <c r="E161" s="3">
+        <v>45269</v>
+      </c>
+      <c r="F161" s="3">
+        <v>45264</v>
       </c>
       <c r="G161">
         <v>3</v>
@@ -13249,8 +13113,8 @@
       <c r="K161" t="s">
         <v>82</v>
       </c>
-      <c r="M161" t="s">
-        <v>414</v>
+      <c r="M161">
+        <v>25330</v>
       </c>
       <c r="N161" t="s">
         <v>68</v>
@@ -13266,14 +13130,14 @@
       <c r="C162">
         <v>5</v>
       </c>
-      <c r="D162" s="2">
-        <v>35312</v>
-      </c>
-      <c r="E162" s="2">
-        <v>35333</v>
-      </c>
-      <c r="F162" s="2">
-        <v>35326</v>
+      <c r="D162" s="3">
+        <v>44808</v>
+      </c>
+      <c r="E162" s="3">
+        <v>44829</v>
+      </c>
+      <c r="F162" s="3">
+        <v>44822</v>
       </c>
       <c r="G162">
         <v>1</v>
@@ -13290,8 +13154,8 @@
       <c r="K162" t="s">
         <v>384</v>
       </c>
-      <c r="M162" t="s">
-        <v>406</v>
+      <c r="M162">
+        <v>78902</v>
       </c>
       <c r="N162" t="s">
         <v>73</v>
@@ -13307,14 +13171,14 @@
       <c r="C163">
         <v>1</v>
       </c>
-      <c r="D163" s="2">
-        <v>35434</v>
-      </c>
-      <c r="E163" s="2">
-        <v>35444</v>
-      </c>
-      <c r="F163" s="2">
-        <v>35438</v>
+      <c r="D163" s="3">
+        <v>44930</v>
+      </c>
+      <c r="E163" s="3">
+        <v>44940</v>
+      </c>
+      <c r="F163" s="3">
+        <v>44934</v>
       </c>
       <c r="G163">
         <v>3</v>
@@ -13331,8 +13195,8 @@
       <c r="K163" t="s">
         <v>388</v>
       </c>
-      <c r="M163" t="s">
-        <v>415</v>
+      <c r="M163">
+        <v>20800</v>
       </c>
       <c r="N163" t="s">
         <v>72</v>
@@ -13348,14 +13212,14 @@
       <c r="C164">
         <v>1</v>
       </c>
-      <c r="D164" s="2">
-        <v>35987</v>
-      </c>
-      <c r="E164" s="2">
-        <v>36000</v>
-      </c>
-      <c r="F164" s="2">
-        <v>35990</v>
+      <c r="D164" s="3">
+        <v>45484</v>
+      </c>
+      <c r="E164" s="3">
+        <v>45497</v>
+      </c>
+      <c r="F164" s="3">
+        <v>45487</v>
       </c>
       <c r="G164">
         <v>3</v>
@@ -13372,8 +13236,8 @@
       <c r="K164" t="s">
         <v>391</v>
       </c>
-      <c r="M164" t="s">
-        <v>430</v>
+      <c r="M164">
+        <v>34315</v>
       </c>
       <c r="N164" t="s">
         <v>75</v>
@@ -13389,14 +13253,14 @@
       <c r="C165">
         <v>1</v>
       </c>
-      <c r="D165" s="2">
-        <v>35737</v>
-      </c>
-      <c r="E165" s="2">
-        <v>35751</v>
-      </c>
-      <c r="F165" s="2">
-        <v>35741</v>
+      <c r="D165" s="3">
+        <v>45233</v>
+      </c>
+      <c r="E165" s="3">
+        <v>45247</v>
+      </c>
+      <c r="F165" s="3">
+        <v>45237</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -13413,11 +13277,11 @@
       <c r="K165" t="s">
         <v>396</v>
       </c>
-      <c r="M165" t="s">
-        <v>434</v>
+      <c r="M165">
+        <v>31100</v>
       </c>
       <c r="N165" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -13430,14 +13294,14 @@
       <c r="C166">
         <v>5</v>
       </c>
-      <c r="D166" s="2">
-        <v>35630</v>
-      </c>
-      <c r="E166" s="2">
-        <v>35644</v>
-      </c>
-      <c r="F166" s="2">
-        <v>35634</v>
+      <c r="D166" s="3">
+        <v>45126</v>
+      </c>
+      <c r="E166" s="3">
+        <v>45140</v>
+      </c>
+      <c r="F166" s="3">
+        <v>45130</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -13454,11 +13318,11 @@
       <c r="K166" t="s">
         <v>395</v>
       </c>
-      <c r="M166" t="s">
-        <v>426</v>
+      <c r="M166">
+        <v>62404</v>
       </c>
       <c r="N166" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="167" spans="1:14">
@@ -13471,14 +13335,14 @@
       <c r="C167">
         <v>10</v>
       </c>
-      <c r="D167" s="2">
-        <v>35359</v>
-      </c>
-      <c r="E167" s="2">
-        <v>35366</v>
-      </c>
-      <c r="F167" s="2">
-        <v>35364</v>
+      <c r="D167" s="3">
+        <v>44855</v>
+      </c>
+      <c r="E167" s="3">
+        <v>44862</v>
+      </c>
+      <c r="F167" s="3">
+        <v>44860</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -13495,8 +13359,8 @@
       <c r="K167" t="s">
         <v>390</v>
       </c>
-      <c r="M167" t="s">
-        <v>417</v>
+      <c r="M167">
+        <v>75547</v>
       </c>
       <c r="N167" t="s">
         <v>77</v>
@@ -13512,14 +13376,14 @@
       <c r="C168">
         <v>9</v>
       </c>
-      <c r="D168" s="2">
-        <v>35707</v>
-      </c>
-      <c r="E168" s="2">
-        <v>35715</v>
-      </c>
-      <c r="F168" s="2">
-        <v>35718</v>
+      <c r="D168" s="3">
+        <v>45203</v>
+      </c>
+      <c r="E168" s="3">
+        <v>45211</v>
+      </c>
+      <c r="F168" s="3">
+        <v>45214</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -13536,8 +13400,8 @@
       <c r="K168" t="s">
         <v>391</v>
       </c>
-      <c r="M168" t="s">
-        <v>430</v>
+      <c r="M168">
+        <v>34315</v>
       </c>
       <c r="N168" t="s">
         <v>75</v>
@@ -13553,14 +13417,14 @@
       <c r="C169">
         <v>8</v>
       </c>
-      <c r="D169" s="2">
-        <v>35093</v>
-      </c>
-      <c r="E169" s="2">
-        <v>35114</v>
-      </c>
-      <c r="F169" s="2">
-        <v>35104</v>
+      <c r="D169" s="3">
+        <v>44590</v>
+      </c>
+      <c r="E169" s="3">
+        <v>44611</v>
+      </c>
+      <c r="F169" s="3">
+        <v>44601</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -13577,8 +13441,8 @@
       <c r="K169" t="s">
         <v>82</v>
       </c>
-      <c r="M169" t="s">
-        <v>414</v>
+      <c r="M169">
+        <v>25330</v>
       </c>
       <c r="N169" t="s">
         <v>68</v>
@@ -13594,14 +13458,14 @@
       <c r="C170">
         <v>10</v>
       </c>
-      <c r="D170" s="2">
-        <v>35937</v>
-      </c>
-      <c r="E170" s="2">
-        <v>35954</v>
-      </c>
-      <c r="F170" s="2">
-        <v>35943</v>
+      <c r="D170" s="3">
+        <v>45434</v>
+      </c>
+      <c r="E170" s="3">
+        <v>45451</v>
+      </c>
+      <c r="F170" s="3">
+        <v>45440</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -13618,8 +13482,8 @@
       <c r="K170" t="s">
         <v>387</v>
       </c>
-      <c r="M170" t="s">
-        <v>413</v>
+      <c r="M170">
+        <v>77556</v>
       </c>
       <c r="N170" t="s">
         <v>68</v>
@@ -13635,14 +13499,14 @@
       <c r="C171">
         <v>5</v>
       </c>
-      <c r="D171" s="2">
-        <v>35334</v>
-      </c>
-      <c r="E171" s="2">
-        <v>35354</v>
-      </c>
-      <c r="F171" s="2">
-        <v>35346</v>
+      <c r="D171" s="3">
+        <v>44830</v>
+      </c>
+      <c r="E171" s="3">
+        <v>44850</v>
+      </c>
+      <c r="F171" s="3">
+        <v>44842</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -13659,8 +13523,8 @@
       <c r="K171" t="s">
         <v>382</v>
       </c>
-      <c r="M171" t="s">
-        <v>404</v>
+      <c r="M171">
+        <v>83750</v>
       </c>
       <c r="N171" t="s">
         <v>69</v>
@@ -13676,14 +13540,14 @@
       <c r="C172">
         <v>6</v>
       </c>
-      <c r="D172" s="2">
-        <v>35907</v>
-      </c>
-      <c r="E172" s="2">
-        <v>35917</v>
-      </c>
-      <c r="F172" s="2">
-        <v>35914</v>
+      <c r="D172" s="3">
+        <v>45404</v>
+      </c>
+      <c r="E172" s="3">
+        <v>45414</v>
+      </c>
+      <c r="F172" s="3">
+        <v>45411</v>
       </c>
       <c r="G172">
         <v>3</v>
@@ -13700,8 +13564,8 @@
       <c r="K172" t="s">
         <v>88</v>
       </c>
-      <c r="M172" t="s">
-        <v>435</v>
+      <c r="M172">
+        <v>88355</v>
       </c>
       <c r="N172" t="s">
         <v>74</v>
@@ -13717,14 +13581,14 @@
       <c r="C173">
         <v>5</v>
       </c>
-      <c r="D173" s="2">
-        <v>35277</v>
-      </c>
-      <c r="E173" s="2">
-        <v>35280</v>
-      </c>
-      <c r="F173" s="2">
-        <v>35283</v>
+      <c r="D173" s="3">
+        <v>44773</v>
+      </c>
+      <c r="E173" s="3">
+        <v>44776</v>
+      </c>
+      <c r="F173" s="3">
+        <v>44779</v>
       </c>
       <c r="G173">
         <v>3</v>
@@ -13741,8 +13605,8 @@
       <c r="K173" t="s">
         <v>388</v>
       </c>
-      <c r="M173" t="s">
-        <v>415</v>
+      <c r="M173">
+        <v>20800</v>
       </c>
       <c r="N173" t="s">
         <v>72</v>
@@ -13758,14 +13622,14 @@
       <c r="C174">
         <v>8</v>
       </c>
-      <c r="D174" s="2">
-        <v>35583</v>
-      </c>
-      <c r="E174" s="2">
-        <v>35586</v>
-      </c>
-      <c r="F174" s="2">
-        <v>35595</v>
+      <c r="D174" s="3">
+        <v>45079</v>
+      </c>
+      <c r="E174" s="3">
+        <v>45082</v>
+      </c>
+      <c r="F174" s="3">
+        <v>45091</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -13782,11 +13646,11 @@
       <c r="K174" t="s">
         <v>381</v>
       </c>
-      <c r="M174" t="s">
-        <v>403</v>
+      <c r="M174">
+        <v>42281</v>
       </c>
       <c r="N174" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="175" spans="1:14">
@@ -13799,14 +13663,14 @@
       <c r="C175">
         <v>7</v>
       </c>
-      <c r="D175" s="2">
-        <v>35395</v>
-      </c>
-      <c r="E175" s="2">
-        <v>35410</v>
-      </c>
-      <c r="F175" s="2">
-        <v>35400</v>
+      <c r="D175" s="3">
+        <v>44891</v>
+      </c>
+      <c r="E175" s="3">
+        <v>44906</v>
+      </c>
+      <c r="F175" s="3">
+        <v>44896</v>
       </c>
       <c r="G175">
         <v>3</v>
@@ -13823,11 +13687,11 @@
       <c r="K175" t="s">
         <v>386</v>
       </c>
-      <c r="M175" t="s">
-        <v>411</v>
+      <c r="M175">
+        <v>54715</v>
       </c>
       <c r="N175" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="176" spans="1:14">
@@ -13840,14 +13704,14 @@
       <c r="C176">
         <v>6</v>
       </c>
-      <c r="D176" s="2">
-        <v>35187</v>
-      </c>
-      <c r="E176" s="2">
-        <v>35200</v>
-      </c>
-      <c r="F176" s="2">
-        <v>35199</v>
+      <c r="D176" s="3">
+        <v>44683</v>
+      </c>
+      <c r="E176" s="3">
+        <v>44696</v>
+      </c>
+      <c r="F176" s="3">
+        <v>44695</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -13864,11 +13728,11 @@
       <c r="K176" t="s">
         <v>396</v>
       </c>
-      <c r="M176" t="s">
-        <v>434</v>
+      <c r="M176">
+        <v>31100</v>
       </c>
       <c r="N176" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:14">
@@ -13881,14 +13745,14 @@
       <c r="C177">
         <v>3</v>
       </c>
-      <c r="D177" s="2">
-        <v>35825</v>
-      </c>
-      <c r="E177" s="2">
-        <v>35828</v>
-      </c>
-      <c r="F177" s="2">
-        <v>35839</v>
+      <c r="D177" s="3">
+        <v>45321</v>
+      </c>
+      <c r="E177" s="3">
+        <v>45324</v>
+      </c>
+      <c r="F177" s="3">
+        <v>45335</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -13905,8 +13769,8 @@
       <c r="K177" t="s">
         <v>378</v>
       </c>
-      <c r="M177" t="s">
-        <v>400</v>
+      <c r="M177">
+        <v>30471</v>
       </c>
       <c r="N177" t="s">
         <v>68</v>
@@ -13922,14 +13786,14 @@
       <c r="C178">
         <v>3</v>
       </c>
-      <c r="D178" s="2">
-        <v>35193</v>
-      </c>
-      <c r="E178" s="2">
-        <v>35208</v>
-      </c>
-      <c r="F178" s="2">
-        <v>35199</v>
+      <c r="D178" s="3">
+        <v>44689</v>
+      </c>
+      <c r="E178" s="3">
+        <v>44704</v>
+      </c>
+      <c r="F178" s="3">
+        <v>44695</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -13946,8 +13810,8 @@
       <c r="K178" t="s">
         <v>94</v>
       </c>
-      <c r="M178" t="s">
-        <v>418</v>
+      <c r="M178">
+        <v>80043</v>
       </c>
       <c r="N178" t="s">
         <v>78</v>
@@ -13963,14 +13827,14 @@
       <c r="C179">
         <v>10</v>
       </c>
-      <c r="D179" s="2">
-        <v>36123</v>
-      </c>
-      <c r="E179" s="2">
-        <v>36138</v>
-      </c>
-      <c r="F179" s="2">
-        <v>36135</v>
+      <c r="D179" s="3">
+        <v>45620</v>
+      </c>
+      <c r="E179" s="3">
+        <v>45635</v>
+      </c>
+      <c r="F179" s="3">
+        <v>45632</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -13987,8 +13851,8 @@
       <c r="K179" t="s">
         <v>387</v>
       </c>
-      <c r="M179" t="s">
-        <v>413</v>
+      <c r="M179">
+        <v>77556</v>
       </c>
       <c r="N179" t="s">
         <v>68</v>
@@ -14004,14 +13868,14 @@
       <c r="C180">
         <v>10</v>
       </c>
-      <c r="D180" s="2">
-        <v>35753</v>
-      </c>
-      <c r="E180" s="2">
-        <v>35757</v>
-      </c>
-      <c r="F180" s="2">
-        <v>35760</v>
+      <c r="D180" s="3">
+        <v>45249</v>
+      </c>
+      <c r="E180" s="3">
+        <v>45253</v>
+      </c>
+      <c r="F180" s="3">
+        <v>45256</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -14028,8 +13892,8 @@
       <c r="K180" t="s">
         <v>380</v>
       </c>
-      <c r="M180" t="s">
-        <v>402</v>
+      <c r="M180">
+        <v>65155</v>
       </c>
       <c r="N180" t="s">
         <v>68</v>
@@ -14045,14 +13909,14 @@
       <c r="C181">
         <v>1</v>
       </c>
-      <c r="D181" s="2">
-        <v>35517</v>
-      </c>
-      <c r="E181" s="2">
-        <v>35532</v>
-      </c>
-      <c r="F181" s="2">
-        <v>35529</v>
+      <c r="D181" s="3">
+        <v>45013</v>
+      </c>
+      <c r="E181" s="3">
+        <v>45028</v>
+      </c>
+      <c r="F181" s="3">
+        <v>45025</v>
       </c>
       <c r="G181">
         <v>3</v>
@@ -14069,8 +13933,8 @@
       <c r="K181" t="s">
         <v>379</v>
       </c>
-      <c r="M181" t="s">
-        <v>431</v>
+      <c r="M181">
+        <v>26678</v>
       </c>
       <c r="N181" t="s">
         <v>67</v>
@@ -14086,14 +13950,14 @@
       <c r="C182">
         <v>5</v>
       </c>
-      <c r="D182" s="2">
-        <v>35975</v>
-      </c>
-      <c r="E182" s="2">
-        <v>35986</v>
-      </c>
-      <c r="F182" s="2">
-        <v>35988</v>
+      <c r="D182" s="3">
+        <v>45472</v>
+      </c>
+      <c r="E182" s="3">
+        <v>45483</v>
+      </c>
+      <c r="F182" s="3">
+        <v>45485</v>
       </c>
       <c r="G182">
         <v>1</v>
@@ -14110,8 +13974,8 @@
       <c r="K182" t="s">
         <v>384</v>
       </c>
-      <c r="M182" t="s">
-        <v>406</v>
+      <c r="M182">
+        <v>78902</v>
       </c>
       <c r="N182" t="s">
         <v>73</v>
@@ -14127,14 +13991,14 @@
       <c r="C183">
         <v>6</v>
       </c>
-      <c r="D183" s="2">
-        <v>35627</v>
-      </c>
-      <c r="E183" s="2">
-        <v>35635</v>
-      </c>
-      <c r="F183" s="2">
-        <v>35640</v>
+      <c r="D183" s="3">
+        <v>45123</v>
+      </c>
+      <c r="E183" s="3">
+        <v>45131</v>
+      </c>
+      <c r="F183" s="3">
+        <v>45136</v>
       </c>
       <c r="G183">
         <v>3</v>
@@ -14151,8 +14015,8 @@
       <c r="K183" t="s">
         <v>389</v>
       </c>
-      <c r="M183" t="s">
-        <v>416</v>
+      <c r="M183">
+        <v>61456</v>
       </c>
       <c r="N183" t="s">
         <v>67</v>
@@ -14168,14 +14032,14 @@
       <c r="C184">
         <v>8</v>
       </c>
-      <c r="D184" s="2">
-        <v>35258</v>
-      </c>
-      <c r="E184" s="2">
-        <v>35267</v>
-      </c>
-      <c r="F184" s="2">
-        <v>35266</v>
+      <c r="D184" s="3">
+        <v>44754</v>
+      </c>
+      <c r="E184" s="3">
+        <v>44763</v>
+      </c>
+      <c r="F184" s="3">
+        <v>44762</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -14192,8 +14056,8 @@
       <c r="K184" t="s">
         <v>379</v>
       </c>
-      <c r="M184" t="s">
-        <v>401</v>
+      <c r="M184">
+        <v>63045</v>
       </c>
       <c r="N184" t="s">
         <v>67</v>
@@ -14209,14 +14073,14 @@
       <c r="C185">
         <v>9</v>
       </c>
-      <c r="D185" s="2">
-        <v>35747</v>
-      </c>
-      <c r="E185" s="2">
-        <v>35763</v>
-      </c>
-      <c r="F185" s="2">
-        <v>35751</v>
+      <c r="D185" s="3">
+        <v>45243</v>
+      </c>
+      <c r="E185" s="3">
+        <v>45259</v>
+      </c>
+      <c r="F185" s="3">
+        <v>45247</v>
       </c>
       <c r="G185">
         <v>1</v>
@@ -14233,8 +14097,8 @@
       <c r="K185" t="s">
         <v>391</v>
       </c>
-      <c r="M185" t="s">
-        <v>419</v>
+      <c r="M185">
+        <v>35806</v>
       </c>
       <c r="N185" t="s">
         <v>75</v>
@@ -14250,14 +14114,14 @@
       <c r="C186">
         <v>4</v>
       </c>
-      <c r="D186" s="2">
-        <v>36069</v>
-      </c>
-      <c r="E186" s="2">
-        <v>36077</v>
-      </c>
-      <c r="F186" s="2">
-        <v>36070</v>
+      <c r="D186" s="3">
+        <v>45566</v>
+      </c>
+      <c r="E186" s="3">
+        <v>45574</v>
+      </c>
+      <c r="F186" s="3">
+        <v>45567</v>
       </c>
       <c r="G186">
         <v>3</v>
@@ -14274,8 +14138,8 @@
       <c r="K186" t="s">
         <v>385</v>
       </c>
-      <c r="M186" t="s">
-        <v>408</v>
+      <c r="M186">
+        <v>62351</v>
       </c>
       <c r="N186" t="s">
         <v>70</v>
@@ -14291,14 +14155,14 @@
       <c r="C187">
         <v>4</v>
       </c>
-      <c r="D187" s="2">
-        <v>35527</v>
-      </c>
-      <c r="E187" s="2">
-        <v>35534</v>
-      </c>
-      <c r="F187" s="2">
-        <v>35537</v>
+      <c r="D187" s="3">
+        <v>45023</v>
+      </c>
+      <c r="E187" s="3">
+        <v>45030</v>
+      </c>
+      <c r="F187" s="3">
+        <v>45033</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -14315,8 +14179,8 @@
       <c r="K187" t="s">
         <v>385</v>
       </c>
-      <c r="M187" t="s">
-        <v>408</v>
+      <c r="M187">
+        <v>62351</v>
       </c>
       <c r="N187" t="s">
         <v>70</v>
@@ -14332,14 +14196,14 @@
       <c r="C188">
         <v>2</v>
       </c>
-      <c r="D188" s="2">
-        <v>36112</v>
-      </c>
-      <c r="E188" s="2">
-        <v>36124</v>
-      </c>
-      <c r="F188" s="2">
-        <v>36113</v>
+      <c r="D188" s="3">
+        <v>45609</v>
+      </c>
+      <c r="E188" s="3">
+        <v>45621</v>
+      </c>
+      <c r="F188" s="3">
+        <v>45610</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -14356,11 +14220,11 @@
       <c r="K188" t="s">
         <v>399</v>
       </c>
-      <c r="M188" t="s">
-        <v>439</v>
+      <c r="M188">
+        <v>29429</v>
       </c>
       <c r="N188" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -14373,14 +14237,14 @@
       <c r="C189">
         <v>2</v>
       </c>
-      <c r="D189" s="2">
-        <v>35664</v>
-      </c>
-      <c r="E189" s="2">
-        <v>35667</v>
-      </c>
-      <c r="F189" s="2">
-        <v>35677</v>
+      <c r="D189" s="3">
+        <v>45160</v>
+      </c>
+      <c r="E189" s="3">
+        <v>45163</v>
+      </c>
+      <c r="F189" s="3">
+        <v>45173</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -14397,8 +14261,8 @@
       <c r="K189" t="s">
         <v>391</v>
       </c>
-      <c r="M189" t="s">
-        <v>430</v>
+      <c r="M189">
+        <v>34315</v>
       </c>
       <c r="N189" t="s">
         <v>75</v>
@@ -14414,14 +14278,14 @@
       <c r="C190">
         <v>4</v>
       </c>
-      <c r="D190" s="2">
-        <v>35983</v>
-      </c>
-      <c r="E190" s="2">
-        <v>35999</v>
-      </c>
-      <c r="F190" s="2">
-        <v>35991</v>
+      <c r="D190" s="3">
+        <v>45480</v>
+      </c>
+      <c r="E190" s="3">
+        <v>45496</v>
+      </c>
+      <c r="F190" s="3">
+        <v>45488</v>
       </c>
       <c r="G190">
         <v>1</v>
@@ -14438,8 +14302,8 @@
       <c r="K190" t="s">
         <v>379</v>
       </c>
-      <c r="M190" t="s">
-        <v>410</v>
+      <c r="M190">
+        <v>21567</v>
       </c>
       <c r="N190" t="s">
         <v>67</v>
@@ -14455,14 +14319,14 @@
       <c r="C191">
         <v>1</v>
       </c>
-      <c r="D191" s="2">
-        <v>36052</v>
-      </c>
-      <c r="E191" s="2">
-        <v>36066</v>
-      </c>
-      <c r="F191" s="2">
-        <v>36065</v>
+      <c r="D191" s="3">
+        <v>45549</v>
+      </c>
+      <c r="E191" s="3">
+        <v>45563</v>
+      </c>
+      <c r="F191" s="3">
+        <v>45562</v>
       </c>
       <c r="G191">
         <v>3</v>
@@ -14479,8 +14343,8 @@
       <c r="K191" t="s">
         <v>384</v>
       </c>
-      <c r="M191" t="s">
-        <v>406</v>
+      <c r="M191">
+        <v>78902</v>
       </c>
       <c r="N191" t="s">
         <v>73</v>
@@ -14496,14 +14360,14 @@
       <c r="C192">
         <v>5</v>
       </c>
-      <c r="D192" s="2">
-        <v>36113</v>
-      </c>
-      <c r="E192" s="2">
-        <v>36132</v>
-      </c>
-      <c r="F192" s="2">
-        <v>36125</v>
+      <c r="D192" s="3">
+        <v>45610</v>
+      </c>
+      <c r="E192" s="3">
+        <v>45629</v>
+      </c>
+      <c r="F192" s="3">
+        <v>45622</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -14520,8 +14384,8 @@
       <c r="K192" t="s">
         <v>380</v>
       </c>
-      <c r="M192" t="s">
-        <v>402</v>
+      <c r="M192">
+        <v>65155</v>
       </c>
       <c r="N192" t="s">
         <v>68</v>
@@ -14537,14 +14401,14 @@
       <c r="C193">
         <v>3</v>
       </c>
-      <c r="D193" s="2">
-        <v>35544</v>
-      </c>
-      <c r="E193" s="2">
-        <v>35554</v>
-      </c>
-      <c r="F193" s="2">
-        <v>35554</v>
+      <c r="D193" s="3">
+        <v>45040</v>
+      </c>
+      <c r="E193" s="3">
+        <v>45050</v>
+      </c>
+      <c r="F193" s="3">
+        <v>45050</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -14561,11 +14425,11 @@
       <c r="K193" t="s">
         <v>395</v>
       </c>
-      <c r="M193" t="s">
-        <v>426</v>
+      <c r="M193">
+        <v>62404</v>
       </c>
       <c r="N193" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="194" spans="1:14">
@@ -14578,14 +14442,14 @@
       <c r="C194">
         <v>7</v>
       </c>
-      <c r="D194" s="2">
-        <v>35667</v>
-      </c>
-      <c r="E194" s="2">
-        <v>35681</v>
-      </c>
-      <c r="F194" s="2">
-        <v>35669</v>
+      <c r="D194" s="3">
+        <v>45163</v>
+      </c>
+      <c r="E194" s="3">
+        <v>45177</v>
+      </c>
+      <c r="F194" s="3">
+        <v>45165</v>
       </c>
       <c r="G194">
         <v>1</v>
@@ -14602,8 +14466,8 @@
       <c r="K194" t="s">
         <v>385</v>
       </c>
-      <c r="M194" t="s">
-        <v>409</v>
+      <c r="M194">
+        <v>76182</v>
       </c>
       <c r="N194" t="s">
         <v>70</v>
@@ -14619,14 +14483,14 @@
       <c r="C195">
         <v>2</v>
       </c>
-      <c r="D195" s="2">
-        <v>35502</v>
-      </c>
-      <c r="E195" s="2">
-        <v>35514</v>
-      </c>
-      <c r="F195" s="2">
-        <v>35508</v>
+      <c r="D195" s="3">
+        <v>44998</v>
+      </c>
+      <c r="E195" s="3">
+        <v>45010</v>
+      </c>
+      <c r="F195" s="3">
+        <v>45004</v>
       </c>
       <c r="G195">
         <v>1</v>
@@ -14643,8 +14507,8 @@
       <c r="K195" t="s">
         <v>384</v>
       </c>
-      <c r="M195" t="s">
-        <v>429</v>
+      <c r="M195">
+        <v>42964</v>
       </c>
       <c r="N195" t="s">
         <v>73</v>
@@ -14660,14 +14524,14 @@
       <c r="C196">
         <v>10</v>
       </c>
-      <c r="D196" s="2">
-        <v>35648</v>
-      </c>
-      <c r="E196" s="2">
-        <v>35665</v>
-      </c>
-      <c r="F196" s="2">
-        <v>35660</v>
+      <c r="D196" s="3">
+        <v>45144</v>
+      </c>
+      <c r="E196" s="3">
+        <v>45161</v>
+      </c>
+      <c r="F196" s="3">
+        <v>45156</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -14684,8 +14548,8 @@
       <c r="K196" t="s">
         <v>85</v>
       </c>
-      <c r="M196" t="s">
-        <v>407</v>
+      <c r="M196">
+        <v>73031</v>
       </c>
       <c r="N196" t="s">
         <v>71</v>
@@ -14701,14 +14565,14 @@
       <c r="C197">
         <v>2</v>
       </c>
-      <c r="D197" s="2">
-        <v>35971</v>
-      </c>
-      <c r="E197" s="2">
-        <v>35978</v>
-      </c>
-      <c r="F197" s="2">
-        <v>35983</v>
+      <c r="D197" s="3">
+        <v>45468</v>
+      </c>
+      <c r="E197" s="3">
+        <v>45475</v>
+      </c>
+      <c r="F197" s="3">
+        <v>45480</v>
       </c>
       <c r="G197">
         <v>1</v>
@@ -14725,8 +14589,8 @@
       <c r="K197" t="s">
         <v>379</v>
       </c>
-      <c r="M197" t="s">
-        <v>401</v>
+      <c r="M197">
+        <v>63045</v>
       </c>
       <c r="N197" t="s">
         <v>67</v>
@@ -14742,14 +14606,14 @@
       <c r="C198">
         <v>2</v>
       </c>
-      <c r="D198" s="2">
-        <v>36014</v>
-      </c>
-      <c r="E198" s="2">
-        <v>36017</v>
-      </c>
-      <c r="F198" s="2">
-        <v>36022</v>
+      <c r="D198" s="3">
+        <v>45511</v>
+      </c>
+      <c r="E198" s="3">
+        <v>45514</v>
+      </c>
+      <c r="F198" s="3">
+        <v>45519</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -14766,8 +14630,8 @@
       <c r="K198" t="s">
         <v>391</v>
       </c>
-      <c r="M198" t="s">
-        <v>430</v>
+      <c r="M198">
+        <v>34315</v>
       </c>
       <c r="N198" t="s">
         <v>75</v>
@@ -14783,14 +14647,14 @@
       <c r="C199">
         <v>7</v>
       </c>
-      <c r="D199" s="2">
-        <v>35183</v>
-      </c>
-      <c r="E199" s="2">
-        <v>35203</v>
-      </c>
-      <c r="F199" s="2">
-        <v>35195</v>
+      <c r="D199" s="3">
+        <v>44679</v>
+      </c>
+      <c r="E199" s="3">
+        <v>44699</v>
+      </c>
+      <c r="F199" s="3">
+        <v>44691</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -14807,8 +14671,8 @@
       <c r="K199" t="s">
         <v>85</v>
       </c>
-      <c r="M199" t="s">
-        <v>407</v>
+      <c r="M199">
+        <v>73031</v>
       </c>
       <c r="N199" t="s">
         <v>71</v>
@@ -14824,14 +14688,14 @@
       <c r="C200">
         <v>3</v>
       </c>
-      <c r="D200" s="2">
-        <v>35371</v>
-      </c>
-      <c r="E200" s="2">
-        <v>35392</v>
-      </c>
-      <c r="F200" s="2">
-        <v>35383</v>
+      <c r="D200" s="3">
+        <v>44867</v>
+      </c>
+      <c r="E200" s="3">
+        <v>44888</v>
+      </c>
+      <c r="F200" s="3">
+        <v>44879</v>
       </c>
       <c r="G200">
         <v>2</v>
@@ -14848,8 +14712,8 @@
       <c r="K200" t="s">
         <v>394</v>
       </c>
-      <c r="M200" t="s">
-        <v>432</v>
+      <c r="M200">
+        <v>43357</v>
       </c>
       <c r="N200" t="s">
         <v>78</v>
@@ -14865,14 +14729,14 @@
       <c r="C201">
         <v>10</v>
       </c>
-      <c r="D201" s="2">
-        <v>35901</v>
-      </c>
-      <c r="E201" s="2">
-        <v>35910</v>
-      </c>
-      <c r="F201" s="2">
-        <v>35904</v>
+      <c r="D201" s="3">
+        <v>45398</v>
+      </c>
+      <c r="E201" s="3">
+        <v>45407</v>
+      </c>
+      <c r="F201" s="3">
+        <v>45401</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -14889,11 +14753,11 @@
       <c r="K201" t="s">
         <v>386</v>
       </c>
-      <c r="M201" t="s">
-        <v>433</v>
+      <c r="M201">
+        <v>33381</v>
       </c>
       <c r="N201" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -14911,7 +14775,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>135</v>
@@ -14920,10 +14784,10 @@
         <v>138</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -26790,10 +26654,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -26801,7 +26665,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -26809,7 +26673,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -26817,7 +26681,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -26825,7 +26689,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
